--- a/AnnieLake/AnnieTS.xlsx
+++ b/AnnieLake/AnnieTS.xlsx
@@ -55,9 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -574,7 +575,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -601,6 +602,12 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -939,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K796"/>
+  <dimension ref="A1:N798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,9 +957,10 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="7"/>
     <col min="8" max="11" width="9.140625" style="9"/>
+    <col min="13" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -987,10 +995,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="1">
         <v>39521</v>
       </c>
+      <c r="B2" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
@@ -1006,14 +1017,21 @@
       <c r="I2" s="10">
         <v>3.6666666666666665</v>
       </c>
+      <c r="J2" s="13">
+        <v>3.992</v>
+      </c>
       <c r="K2" s="11">
         <v>3.6576000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="1">
         <v>39522</v>
       </c>
+      <c r="B3" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E3" s="8">
         <v>0.254</v>
       </c>
@@ -1024,10 +1042,13 @@
         <v>21.83979166666667</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="1">
         <v>39523</v>
       </c>
+      <c r="B4" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
@@ -1038,10 +1059,13 @@
         <v>22.69864583333333</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="1">
         <v>39524</v>
       </c>
+      <c r="B5" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
@@ -1052,10 +1076,13 @@
         <v>22.842500000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="1">
         <v>39525</v>
       </c>
+      <c r="B6" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E6" s="8">
         <v>0</v>
       </c>
@@ -1066,10 +1093,13 @@
         <v>22.666041666666683</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="1">
         <v>39526</v>
       </c>
+      <c r="B7" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
@@ -1080,10 +1110,13 @@
         <v>22.706875</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="1">
         <v>39527</v>
       </c>
+      <c r="B8" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E8" s="8">
         <v>0</v>
       </c>
@@ -1094,10 +1127,13 @@
         <v>22.763333333333339</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="1">
         <v>39528</v>
       </c>
+      <c r="B9" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E9" s="8">
         <v>5.3339999999999996</v>
       </c>
@@ -1108,10 +1144,13 @@
         <v>22.309270833333347</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="1">
         <v>39529</v>
       </c>
+      <c r="B10" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
@@ -1122,10 +1161,13 @@
         <v>22.179270833333334</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="1">
         <v>39530</v>
       </c>
+      <c r="B11" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E11" s="8">
         <v>26.92</v>
       </c>
@@ -1136,10 +1178,13 @@
         <v>22.703854166666659</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="1">
         <v>39531</v>
       </c>
+      <c r="B12" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E12" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -1150,10 +1195,13 @@
         <v>22.547604166666659</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="1">
         <v>39532</v>
       </c>
+      <c r="B13" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E13" s="8">
         <v>0</v>
       </c>
@@ -1164,10 +1212,13 @@
         <v>21.557500000000015</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="1">
         <v>39533</v>
       </c>
+      <c r="B14" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E14" s="8">
         <v>0</v>
       </c>
@@ -1178,10 +1229,13 @@
         <v>21.288020833333331</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="1">
         <v>39534</v>
       </c>
+      <c r="B15" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E15" s="8">
         <v>0</v>
       </c>
@@ -1191,10 +1245,14 @@
       <c r="G15" s="3">
         <v>21.648125000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="1">
         <v>39535</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E16" s="8">
         <v>0</v>
@@ -1210,6 +1268,9 @@
       <c r="A17" s="1">
         <v>39536</v>
       </c>
+      <c r="B17" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E17" s="8">
         <v>0</v>
       </c>
@@ -1224,6 +1285,9 @@
       <c r="A18" s="1">
         <v>39537</v>
       </c>
+      <c r="B18" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E18" s="8">
         <v>0</v>
       </c>
@@ -1238,6 +1302,9 @@
       <c r="A19" s="1">
         <v>39538</v>
       </c>
+      <c r="B19" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E19" s="8">
         <v>1.778</v>
       </c>
@@ -1252,6 +1319,9 @@
       <c r="A20" s="1">
         <v>39539</v>
       </c>
+      <c r="B20" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E20" s="8">
         <v>0.254</v>
       </c>
@@ -1266,6 +1336,9 @@
       <c r="A21" s="1">
         <v>39540</v>
       </c>
+      <c r="B21" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E21" s="8">
         <v>16.260000000000002</v>
       </c>
@@ -1280,6 +1353,9 @@
       <c r="A22" s="1">
         <v>39541</v>
       </c>
+      <c r="B22" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E22" s="8">
         <v>3.048</v>
       </c>
@@ -1294,6 +1370,9 @@
       <c r="A23" s="1">
         <v>39542</v>
       </c>
+      <c r="B23" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E23" s="8">
         <v>0</v>
       </c>
@@ -1308,6 +1387,9 @@
       <c r="A24" s="1">
         <v>39543</v>
       </c>
+      <c r="B24" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E24" s="8">
         <v>1.524</v>
       </c>
@@ -1322,6 +1404,9 @@
       <c r="A25" s="1">
         <v>39544</v>
       </c>
+      <c r="B25" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E25" s="8">
         <v>7.8739999999999997</v>
       </c>
@@ -1336,6 +1421,9 @@
       <c r="A26" s="1">
         <v>39545</v>
       </c>
+      <c r="B26" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E26" s="8">
         <v>40.130000000000003</v>
       </c>
@@ -1350,6 +1438,9 @@
       <c r="A27" s="1">
         <v>39546</v>
       </c>
+      <c r="B27" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E27" s="8">
         <v>0.254</v>
       </c>
@@ -1364,6 +1455,9 @@
       <c r="A28" s="1">
         <v>39547</v>
       </c>
+      <c r="B28" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E28" s="8">
         <v>4.5720000000000001</v>
       </c>
@@ -1378,6 +1472,9 @@
       <c r="A29" s="1">
         <v>39548</v>
       </c>
+      <c r="B29" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E29" s="8">
         <v>0.254</v>
       </c>
@@ -1392,6 +1489,9 @@
       <c r="A30" s="1">
         <v>39549</v>
       </c>
+      <c r="B30" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E30" s="8">
         <v>0</v>
       </c>
@@ -1406,6 +1506,9 @@
       <c r="A31" s="1">
         <v>39550</v>
       </c>
+      <c r="B31" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E31" s="8">
         <v>0</v>
       </c>
@@ -1420,6 +1523,9 @@
       <c r="A32" s="1">
         <v>39551</v>
       </c>
+      <c r="B32" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E32" s="8">
         <v>0</v>
       </c>
@@ -1434,6 +1540,9 @@
       <c r="A33" s="1">
         <v>39552</v>
       </c>
+      <c r="B33" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E33" s="8">
         <v>0</v>
       </c>
@@ -1448,6 +1557,9 @@
       <c r="A34" s="1">
         <v>39553</v>
       </c>
+      <c r="B34" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E34" s="8">
         <v>0.254</v>
       </c>
@@ -1462,6 +1574,9 @@
       </c>
       <c r="I34" s="10">
         <v>2.6666666666666665</v>
+      </c>
+      <c r="J34" s="13">
+        <v>3.88</v>
       </c>
       <c r="K34" s="11">
         <v>2.9870400000000004</v>
@@ -1471,6 +1586,9 @@
       <c r="A35" s="1">
         <v>39554</v>
       </c>
+      <c r="B35" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E35" s="8">
         <v>0</v>
       </c>
@@ -1485,6 +1603,9 @@
       <c r="A36" s="1">
         <v>39555</v>
       </c>
+      <c r="B36" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E36" s="8">
         <v>0</v>
       </c>
@@ -1497,6 +1618,9 @@
       <c r="A37" s="1">
         <v>39556</v>
       </c>
+      <c r="B37" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E37" s="8">
         <v>0</v>
       </c>
@@ -1511,6 +1635,9 @@
       <c r="A38" s="1">
         <v>39557</v>
       </c>
+      <c r="B38" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E38" s="8">
         <v>0</v>
       </c>
@@ -1525,6 +1652,9 @@
       <c r="A39" s="1">
         <v>39558</v>
       </c>
+      <c r="B39" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E39" s="8">
         <v>0</v>
       </c>
@@ -1539,6 +1669,9 @@
       <c r="A40" s="1">
         <v>39559</v>
       </c>
+      <c r="B40" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E40" s="8">
         <v>0.254</v>
       </c>
@@ -1553,6 +1686,9 @@
       <c r="A41" s="1">
         <v>39560</v>
       </c>
+      <c r="B41" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E41" s="8">
         <v>0</v>
       </c>
@@ -1567,6 +1703,9 @@
       <c r="A42" s="1">
         <v>39561</v>
       </c>
+      <c r="B42" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E42" s="8">
         <v>0</v>
       </c>
@@ -1581,6 +1720,9 @@
       <c r="A43" s="1">
         <v>39562</v>
       </c>
+      <c r="B43" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E43" s="8">
         <v>0</v>
       </c>
@@ -1595,6 +1737,9 @@
       <c r="A44" s="1">
         <v>39563</v>
       </c>
+      <c r="B44" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E44" s="8">
         <v>0</v>
       </c>
@@ -1609,6 +1754,9 @@
       <c r="A45" s="1">
         <v>39564</v>
       </c>
+      <c r="B45" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E45" s="8">
         <v>0</v>
       </c>
@@ -1623,6 +1771,9 @@
       <c r="A46" s="1">
         <v>39565</v>
       </c>
+      <c r="B46" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E46" s="8">
         <v>0</v>
       </c>
@@ -1637,6 +1788,9 @@
       <c r="A47" s="1">
         <v>39566</v>
       </c>
+      <c r="B47" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E47" s="8">
         <v>0</v>
       </c>
@@ -1651,6 +1805,9 @@
       <c r="A48" s="1">
         <v>39567</v>
       </c>
+      <c r="B48" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E48" s="8">
         <v>0</v>
       </c>
@@ -1661,10 +1818,13 @@
         <v>25.220520833333325</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="1">
         <v>39568</v>
       </c>
+      <c r="B49" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E49" s="8">
         <v>0</v>
       </c>
@@ -1675,10 +1835,13 @@
         <v>25.020520833333332</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="1">
         <v>39569</v>
       </c>
+      <c r="B50" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E50" s="8">
         <v>0</v>
       </c>
@@ -1689,10 +1852,13 @@
         <v>24.786979166666658</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="1">
         <v>39570</v>
       </c>
+      <c r="B51" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E51" s="8">
         <v>0</v>
       </c>
@@ -1703,10 +1869,13 @@
         <v>24.801979166666658</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="1">
         <v>39571</v>
       </c>
+      <c r="B52" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E52" s="8">
         <v>0</v>
       </c>
@@ -1717,10 +1886,13 @@
         <v>25.172812500000003</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="1">
         <v>39572</v>
       </c>
+      <c r="B53" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E53" s="8">
         <v>0</v>
       </c>
@@ -1731,10 +1903,13 @@
         <v>26.051250000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="1">
         <v>39573</v>
       </c>
+      <c r="B54" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E54" s="8">
         <v>0</v>
       </c>
@@ -1745,10 +1920,13 @@
         <v>26.214374999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75">
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="1">
         <v>39574</v>
       </c>
+      <c r="B55" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E55" s="8">
         <v>0</v>
       </c>
@@ -1758,11 +1936,15 @@
       <c r="G55" s="3">
         <v>26.370312499999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75">
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="1">
         <v>39575</v>
       </c>
+      <c r="B56" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E56" s="8">
         <v>0</v>
       </c>
@@ -1773,10 +1955,13 @@
         <v>26.850104166666672</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75">
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" s="1">
         <v>39576</v>
       </c>
+      <c r="B57" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E57" s="8">
         <v>0</v>
       </c>
@@ -1787,10 +1972,13 @@
         <v>26.938437499999988</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="1">
         <v>39577</v>
       </c>
+      <c r="B58" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E58" s="8">
         <v>1.27</v>
       </c>
@@ -1801,10 +1989,13 @@
         <v>27.044895833333332</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75">
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="1">
         <v>39578</v>
       </c>
+      <c r="B59" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E59" s="8">
         <v>0</v>
       </c>
@@ -1815,10 +2006,13 @@
         <v>27.415729166666647</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75">
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="1">
         <v>39579</v>
       </c>
+      <c r="B60" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E60" s="8">
         <v>0</v>
       </c>
@@ -1829,10 +2023,13 @@
         <v>27.499999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75">
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="1">
         <v>39580</v>
       </c>
+      <c r="B61" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E61" s="8">
         <v>0</v>
       </c>
@@ -1843,10 +2040,13 @@
         <v>27.240312499999998</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="1">
         <v>39581</v>
       </c>
+      <c r="B62" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E62" s="8">
         <v>0</v>
       </c>
@@ -1857,10 +2057,13 @@
         <v>26.877395833333342</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="1">
         <v>39582</v>
       </c>
+      <c r="B63" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E63" s="8">
         <v>0</v>
       </c>
@@ -1871,10 +2074,13 @@
         <v>26.612500000000011</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="1">
         <v>39583</v>
       </c>
+      <c r="B64" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E64" s="8">
         <v>0</v>
       </c>
@@ -1889,6 +2095,9 @@
       </c>
       <c r="I64" s="10">
         <v>2.3333333333333335</v>
+      </c>
+      <c r="J64" s="13">
+        <v>4.0419999999999998</v>
       </c>
       <c r="K64" s="11">
         <v>3.3528000000000002</v>
@@ -1898,6 +2107,9 @@
       <c r="A65" s="1">
         <v>39584</v>
       </c>
+      <c r="B65" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E65" s="8">
         <v>0</v>
       </c>
@@ -1912,6 +2124,9 @@
       <c r="A66" s="1">
         <v>39585</v>
       </c>
+      <c r="B66" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E66" s="8">
         <v>0</v>
       </c>
@@ -1926,6 +2141,9 @@
       <c r="A67" s="1">
         <v>39586</v>
       </c>
+      <c r="B67" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E67" s="8">
         <v>0</v>
       </c>
@@ -1940,6 +2158,9 @@
       <c r="A68" s="1">
         <v>39587</v>
       </c>
+      <c r="B68" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E68" s="8">
         <v>1.27</v>
       </c>
@@ -1954,6 +2175,9 @@
       <c r="A69" s="1">
         <v>39588</v>
       </c>
+      <c r="B69" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E69" s="8">
         <v>0.254</v>
       </c>
@@ -1968,6 +2192,9 @@
       <c r="A70" s="1">
         <v>39589</v>
       </c>
+      <c r="B70" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E70" s="8">
         <v>30.48</v>
       </c>
@@ -1980,6 +2207,9 @@
       <c r="A71" s="1">
         <v>39590</v>
       </c>
+      <c r="B71" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E71" s="8">
         <v>0</v>
       </c>
@@ -1994,6 +2224,9 @@
       <c r="A72" s="1">
         <v>39591</v>
       </c>
+      <c r="B72" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E72" s="8">
         <v>28.19</v>
       </c>
@@ -2008,6 +2241,9 @@
       <c r="A73" s="1">
         <v>39592</v>
       </c>
+      <c r="B73" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E73" s="8">
         <v>0.254</v>
       </c>
@@ -2022,6 +2258,9 @@
       <c r="A74" s="1">
         <v>39593</v>
       </c>
+      <c r="B74" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E74" s="8">
         <v>0</v>
       </c>
@@ -2036,6 +2275,9 @@
       <c r="A75" s="1">
         <v>39594</v>
       </c>
+      <c r="B75" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E75" s="8">
         <v>0</v>
       </c>
@@ -2050,6 +2292,9 @@
       <c r="A76" s="1">
         <v>39595</v>
       </c>
+      <c r="B76" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E76" s="8">
         <v>0</v>
       </c>
@@ -2064,6 +2309,9 @@
       <c r="A77" s="1">
         <v>39596</v>
       </c>
+      <c r="B77" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E77" s="8">
         <v>0</v>
       </c>
@@ -2078,6 +2326,9 @@
       <c r="A78" s="1">
         <v>39597</v>
       </c>
+      <c r="B78" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E78" s="8">
         <v>0</v>
       </c>
@@ -2092,6 +2343,9 @@
       <c r="A79" s="1">
         <v>39598</v>
       </c>
+      <c r="B79" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E79" s="8">
         <v>0</v>
       </c>
@@ -2106,6 +2360,9 @@
       <c r="A80" s="1">
         <v>39599</v>
       </c>
+      <c r="B80" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E80" s="8">
         <v>0</v>
       </c>
@@ -2116,10 +2373,13 @@
         <v>28.349062499999999</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75">
+    <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="1">
         <v>39600</v>
       </c>
+      <c r="B81" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E81" s="8">
         <v>0</v>
       </c>
@@ -2130,10 +2390,13 @@
         <v>29.491666666666674</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75">
+    <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="1">
         <v>39601</v>
       </c>
+      <c r="B82" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E82" s="8">
         <v>0</v>
       </c>
@@ -2144,10 +2407,13 @@
         <v>29.11645833333333</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75">
+    <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="1">
         <v>39602</v>
       </c>
+      <c r="B83" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E83" s="8">
         <v>1.016</v>
       </c>
@@ -2158,10 +2424,13 @@
         <v>29.359687499999993</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75">
+    <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="1">
         <v>39603</v>
       </c>
+      <c r="B84" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E84" s="8">
         <v>0</v>
       </c>
@@ -2171,11 +2440,15 @@
       <c r="G84" s="3">
         <v>29.383854166666676</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75">
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="1">
         <v>39604</v>
       </c>
+      <c r="B85" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E85" s="8">
         <v>0</v>
       </c>
@@ -2186,10 +2459,13 @@
         <v>29.550520833333334</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75">
+    <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="1">
         <v>39605</v>
       </c>
+      <c r="B86" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E86" s="8">
         <v>0</v>
       </c>
@@ -2200,10 +2476,13 @@
         <v>29.487187499999994</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.75">
+    <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="1">
         <v>39606</v>
       </c>
+      <c r="B87" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E87" s="8">
         <v>0</v>
       </c>
@@ -2214,10 +2493,13 @@
         <v>29.346666666666668</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.75">
+    <row r="88" spans="1:13" ht="15.75">
       <c r="A88" s="1">
         <v>39607</v>
       </c>
+      <c r="B88" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E88" s="8">
         <v>0</v>
       </c>
@@ -2228,10 +2510,13 @@
         <v>29.183541666666674</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.75">
+    <row r="89" spans="1:13" ht="15.75">
       <c r="A89" s="1">
         <v>39608</v>
       </c>
+      <c r="B89" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E89" s="8">
         <v>2.032</v>
       </c>
@@ -2242,10 +2527,13 @@
         <v>29.010208333333338</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75">
+    <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="1">
         <v>39609</v>
       </c>
+      <c r="B90" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E90" s="8">
         <v>0.254</v>
       </c>
@@ -2256,10 +2544,13 @@
         <v>28.914166666666674</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75">
+    <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="1">
         <v>39610</v>
       </c>
+      <c r="B91" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E91" s="8">
         <v>31.5</v>
       </c>
@@ -2270,10 +2561,13 @@
         <v>28.815520833333323</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:13" ht="15.75">
       <c r="A92" s="1">
         <v>39611</v>
       </c>
+      <c r="B92" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E92" s="8">
         <v>0</v>
       </c>
@@ -2284,10 +2578,13 @@
         <v>28.919583333333332</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:13" ht="15.75">
       <c r="A93" s="1">
         <v>39612</v>
       </c>
+      <c r="B93" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E93" s="8">
         <v>0</v>
       </c>
@@ -2298,10 +2595,13 @@
         <v>28.8214583333333</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:13" ht="15.75">
       <c r="A94" s="1">
         <v>39613</v>
       </c>
+      <c r="B94" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E94" s="8">
         <v>0</v>
       </c>
@@ -2312,10 +2612,13 @@
         <v>28.933437500000011</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="1">
         <v>39614</v>
       </c>
+      <c r="B95" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E95" s="8">
         <v>0</v>
       </c>
@@ -2326,9 +2629,12 @@
         <v>29.824374999999989</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="1">
         <v>39615</v>
+      </c>
+      <c r="B96" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E96" s="8">
         <v>11.43</v>
@@ -2344,6 +2650,9 @@
       <c r="A97" s="1">
         <v>39616</v>
       </c>
+      <c r="B97" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E97" s="8">
         <v>0</v>
       </c>
@@ -2358,6 +2667,9 @@
       <c r="A98" s="1">
         <v>39617</v>
       </c>
+      <c r="B98" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E98" s="8">
         <v>2.286</v>
       </c>
@@ -2372,6 +2684,9 @@
       <c r="A99" s="1">
         <v>39618</v>
       </c>
+      <c r="B99" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E99" s="8">
         <v>17.53</v>
       </c>
@@ -2386,6 +2701,9 @@
       <c r="A100" s="1">
         <v>39619</v>
       </c>
+      <c r="B100" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E100" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -2400,6 +2718,9 @@
       </c>
       <c r="I100" s="10">
         <v>2.6666666666666665</v>
+      </c>
+      <c r="J100" s="13">
+        <v>4.0839999999999996</v>
       </c>
       <c r="K100" s="11">
         <v>3.3528000000000002</v>
@@ -2409,6 +2730,9 @@
       <c r="A101" s="1">
         <v>39620</v>
       </c>
+      <c r="B101" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E101" s="8">
         <v>0.254</v>
       </c>
@@ -2423,6 +2747,9 @@
       <c r="A102" s="1">
         <v>39621</v>
       </c>
+      <c r="B102" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E102" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -2437,6 +2764,9 @@
       <c r="A103" s="1">
         <v>39622</v>
       </c>
+      <c r="B103" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E103" s="8">
         <v>52.58</v>
       </c>
@@ -2451,6 +2781,9 @@
       <c r="A104" s="1">
         <v>39623</v>
       </c>
+      <c r="B104" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E104" s="8">
         <v>0</v>
       </c>
@@ -2465,6 +2798,9 @@
       <c r="A105" s="1">
         <v>39624</v>
       </c>
+      <c r="B105" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E105" s="8">
         <v>16.510000000000002</v>
       </c>
@@ -2479,6 +2815,9 @@
       <c r="A106" s="1">
         <v>39625</v>
       </c>
+      <c r="B106" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E106" s="8">
         <v>31.5</v>
       </c>
@@ -2493,6 +2832,9 @@
       <c r="A107" s="1">
         <v>39626</v>
       </c>
+      <c r="B107" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E107" s="8">
         <v>44.96</v>
       </c>
@@ -2507,6 +2849,9 @@
       <c r="A108" s="1">
         <v>39627</v>
       </c>
+      <c r="B108" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E108" s="8">
         <v>4.0640000000000001</v>
       </c>
@@ -2521,6 +2866,9 @@
       <c r="A109" s="1">
         <v>39628</v>
       </c>
+      <c r="B109" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E109" s="8">
         <v>4.5720000000000001</v>
       </c>
@@ -2535,6 +2883,9 @@
       <c r="A110" s="1">
         <v>39629</v>
       </c>
+      <c r="B110" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E110" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -2549,6 +2900,9 @@
       <c r="A111" s="1">
         <v>39630</v>
       </c>
+      <c r="B111" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E111" s="8">
         <v>0</v>
       </c>
@@ -2563,6 +2917,9 @@
       <c r="A112" s="1">
         <v>39631</v>
       </c>
+      <c r="B112" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E112" s="8">
         <v>1.016</v>
       </c>
@@ -2573,10 +2930,13 @@
         <v>28.70375000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.75">
+    <row r="113" spans="1:13" ht="15.75">
       <c r="A113" s="1">
         <v>39632</v>
       </c>
+      <c r="B113" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E113" s="8">
         <v>68.83</v>
       </c>
@@ -2587,10 +2947,13 @@
         <v>28.342604166666671</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75">
+    <row r="114" spans="1:13" ht="15.75">
       <c r="A114" s="1">
         <v>39633</v>
       </c>
+      <c r="B114" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E114" s="8">
         <v>2.286</v>
       </c>
@@ -2601,10 +2964,13 @@
         <v>28.957916666666666</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75">
+    <row r="115" spans="1:13" ht="15.75">
       <c r="A115" s="1">
         <v>39634</v>
       </c>
+      <c r="B115" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E115" s="8">
         <v>7.1120000000000001</v>
       </c>
@@ -2615,10 +2981,13 @@
         <v>29.388020833333346</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.75">
+    <row r="116" spans="1:13" ht="15.75">
       <c r="A116" s="1">
         <v>39635</v>
       </c>
+      <c r="B116" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E116" s="8">
         <v>0</v>
       </c>
@@ -2629,10 +2998,13 @@
         <v>29.451458333333338</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75">
+    <row r="117" spans="1:13" ht="15.75">
       <c r="A117" s="1">
         <v>39636</v>
       </c>
+      <c r="B117" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E117" s="8">
         <v>0</v>
       </c>
@@ -2643,10 +3015,13 @@
         <v>29.120000000000008</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.75">
+    <row r="118" spans="1:13" ht="15.75">
       <c r="A118" s="1">
         <v>39637</v>
       </c>
+      <c r="B118" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E118" s="8">
         <v>18.03</v>
       </c>
@@ -2657,10 +3032,13 @@
         <v>29.001354166666662</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.75">
+    <row r="119" spans="1:13" ht="15.75">
       <c r="A119" s="1">
         <v>39638</v>
       </c>
+      <c r="B119" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E119" s="8">
         <v>1.524</v>
       </c>
@@ -2671,10 +3049,13 @@
         <v>29.173645833333325</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75">
+    <row r="120" spans="1:13" ht="15.75">
       <c r="A120" s="1">
         <v>39639</v>
       </c>
+      <c r="B120" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E120" s="8">
         <v>0.254</v>
       </c>
@@ -2685,10 +3066,13 @@
         <v>29.940312500000005</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75">
+    <row r="121" spans="1:13" ht="15.75">
       <c r="A121" s="1">
         <v>39640</v>
       </c>
+      <c r="B121" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E121" s="8">
         <v>0</v>
       </c>
@@ -2699,10 +3083,13 @@
         <v>30.694166666666678</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75">
+    <row r="122" spans="1:13" ht="15.75">
       <c r="A122" s="1">
         <v>39641</v>
       </c>
+      <c r="B122" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E122" s="8">
         <v>0</v>
       </c>
@@ -2713,10 +3100,13 @@
         <v>29.987500000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75">
+    <row r="123" spans="1:13" ht="15.75">
       <c r="A123" s="1">
         <v>39642</v>
       </c>
+      <c r="B123" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E123" s="8">
         <v>40.39</v>
       </c>
@@ -2727,10 +3117,13 @@
         <v>29.084479166666654</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75">
+    <row r="124" spans="1:13" ht="15.75">
       <c r="A124" s="1">
         <v>39643</v>
       </c>
+      <c r="B124" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E124" s="8">
         <v>4.3179999999999996</v>
       </c>
@@ -2741,10 +3134,13 @@
         <v>29.053854166666667</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75">
+    <row r="125" spans="1:13" ht="15.75">
       <c r="A125" s="1">
         <v>39644</v>
       </c>
+      <c r="B125" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E125" s="8">
         <v>19.05</v>
       </c>
@@ -2755,10 +3151,13 @@
         <v>28.623854166666675</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75">
+    <row r="126" spans="1:13" ht="15.75">
       <c r="A126" s="1">
         <v>39645</v>
       </c>
+      <c r="B126" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E126" s="8">
         <v>13.97</v>
       </c>
@@ -2769,10 +3168,13 @@
         <v>28.112708333333316</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75">
+    <row r="127" spans="1:13" ht="15.75">
       <c r="A127" s="1">
         <v>39646</v>
       </c>
+      <c r="B127" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E127" s="8">
         <v>15.49</v>
       </c>
@@ -2783,10 +3185,13 @@
         <v>27.994895833333302</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75">
+    <row r="128" spans="1:13" ht="15.75">
       <c r="A128" s="1">
         <v>39647</v>
       </c>
+      <c r="B128" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E128" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -2802,14 +3207,21 @@
       <c r="I128" s="10">
         <v>2</v>
       </c>
+      <c r="J128" s="13">
+        <v>4.2210000000000001</v>
+      </c>
       <c r="K128" s="11">
         <v>3.5052000000000003</v>
       </c>
+      <c r="M128" s="12"/>
     </row>
     <row r="129" spans="1:7" ht="15.75">
       <c r="A129" s="1">
         <v>39648</v>
       </c>
+      <c r="B129" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E129" s="8">
         <v>0</v>
       </c>
@@ -2824,6 +3236,9 @@
       <c r="A130" s="1">
         <v>39649</v>
       </c>
+      <c r="B130" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E130" s="8">
         <v>4.8259999999999996</v>
       </c>
@@ -2838,6 +3253,9 @@
       <c r="A131" s="1">
         <v>39650</v>
       </c>
+      <c r="B131" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E131" s="8">
         <v>0</v>
       </c>
@@ -2852,6 +3270,9 @@
       <c r="A132" s="1">
         <v>39651</v>
       </c>
+      <c r="B132" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E132" s="8">
         <v>0</v>
       </c>
@@ -2866,6 +3287,9 @@
       <c r="A133" s="1">
         <v>39652</v>
       </c>
+      <c r="B133" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E133" s="8">
         <v>32.26</v>
       </c>
@@ -2880,6 +3304,9 @@
       <c r="A134" s="1">
         <v>39653</v>
       </c>
+      <c r="B134" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E134" s="8">
         <v>6.6040000000000001</v>
       </c>
@@ -2894,6 +3321,9 @@
       <c r="A135" s="1">
         <v>39654</v>
       </c>
+      <c r="B135" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E135" s="8">
         <v>1.524</v>
       </c>
@@ -2908,6 +3338,9 @@
       <c r="A136" s="1">
         <v>39655</v>
       </c>
+      <c r="B136" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E136" s="8">
         <v>0</v>
       </c>
@@ -2922,6 +3355,9 @@
       <c r="A137" s="1">
         <v>39656</v>
       </c>
+      <c r="B137" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E137" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -2936,6 +3372,9 @@
       <c r="A138" s="1">
         <v>39657</v>
       </c>
+      <c r="B138" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E138" s="8">
         <v>7.3659999999999997</v>
       </c>
@@ -2950,6 +3389,9 @@
       <c r="A139" s="1">
         <v>39658</v>
       </c>
+      <c r="B139" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E139" s="8">
         <v>16</v>
       </c>
@@ -2964,6 +3406,9 @@
       <c r="A140" s="1">
         <v>39659</v>
       </c>
+      <c r="B140" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E140" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -2978,6 +3423,9 @@
       <c r="A141" s="1">
         <v>39660</v>
       </c>
+      <c r="B141" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E141" s="8">
         <v>18.8</v>
       </c>
@@ -2992,6 +3440,9 @@
       <c r="A142" s="1">
         <v>39661</v>
       </c>
+      <c r="B142" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E142" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3004,6 +3455,9 @@
       <c r="A143" s="1">
         <v>39662</v>
       </c>
+      <c r="B143" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E143" s="8">
         <v>0</v>
       </c>
@@ -3018,6 +3472,9 @@
       <c r="A144" s="1">
         <v>39663</v>
       </c>
+      <c r="B144" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E144" s="8">
         <v>0</v>
       </c>
@@ -3028,10 +3485,13 @@
         <v>30.369999999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.75">
+    <row r="145" spans="1:13" ht="15.75">
       <c r="A145" s="1">
         <v>39664</v>
       </c>
+      <c r="B145" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E145" s="8">
         <v>0</v>
       </c>
@@ -3041,11 +3501,15 @@
       <c r="G145" s="3">
         <v>30.17843749999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" ht="15.75">
+      <c r="M145" s="12"/>
+    </row>
+    <row r="146" spans="1:13" ht="15.75">
       <c r="A146" s="1">
         <v>39665</v>
       </c>
+      <c r="B146" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E146" s="8">
         <v>3.048</v>
       </c>
@@ -3056,10 +3520,13 @@
         <v>30.130937500000002</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15.75">
+    <row r="147" spans="1:13" ht="15.75">
       <c r="A147" s="1">
         <v>39666</v>
       </c>
+      <c r="B147" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E147" s="8">
         <v>1.27</v>
       </c>
@@ -3070,10 +3537,13 @@
         <v>30.880208333333332</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.75">
+    <row r="148" spans="1:13" ht="15.75">
       <c r="A148" s="1">
         <v>39667</v>
       </c>
+      <c r="B148" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E148" s="8">
         <v>0</v>
       </c>
@@ -3084,10 +3554,13 @@
         <v>31.287916666666664</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.75">
+    <row r="149" spans="1:13" ht="15.75">
       <c r="A149" s="1">
         <v>39668</v>
       </c>
+      <c r="B149" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E149" s="8">
         <v>35.56</v>
       </c>
@@ -3098,10 +3571,13 @@
         <v>30.462916666666676</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.75">
+    <row r="150" spans="1:13" ht="15.75">
       <c r="A150" s="1">
         <v>39669</v>
       </c>
+      <c r="B150" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E150" s="8">
         <v>0.254</v>
       </c>
@@ -3112,10 +3588,13 @@
         <v>29.936874999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.75">
+    <row r="151" spans="1:13" ht="15.75">
       <c r="A151" s="1">
         <v>39670</v>
       </c>
+      <c r="B151" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E151" s="8">
         <v>3.81</v>
       </c>
@@ -3126,10 +3605,13 @@
         <v>29.92197916666667</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.75">
+    <row r="152" spans="1:13" ht="15.75">
       <c r="A152" s="1">
         <v>39671</v>
       </c>
+      <c r="B152" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E152" s="8">
         <v>3.81</v>
       </c>
@@ -3140,10 +3622,13 @@
         <v>30.020520833333332</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.75">
+    <row r="153" spans="1:13" ht="15.75">
       <c r="A153" s="1">
         <v>39672</v>
       </c>
+      <c r="B153" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E153" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3154,10 +3639,13 @@
         <v>29.804999999999989</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75">
+    <row r="154" spans="1:13" ht="15.75">
       <c r="A154" s="1">
         <v>39673</v>
       </c>
+      <c r="B154" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E154" s="8">
         <v>7.62</v>
       </c>
@@ -3168,10 +3656,13 @@
         <v>29.601874999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.75">
+    <row r="155" spans="1:13" ht="15.75">
       <c r="A155" s="1">
         <v>39674</v>
       </c>
+      <c r="B155" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E155" s="8">
         <v>0</v>
       </c>
@@ -3182,10 +3673,13 @@
         <v>29.535833333333343</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.75">
+    <row r="156" spans="1:13" ht="15.75">
       <c r="A156" s="1">
         <v>39675</v>
       </c>
+      <c r="B156" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E156" s="8">
         <v>10.41</v>
       </c>
@@ -3201,14 +3695,20 @@
       <c r="I156" s="10">
         <v>3</v>
       </c>
+      <c r="J156" s="13">
+        <v>4.9969999999999999</v>
+      </c>
       <c r="K156" s="11">
         <v>2.8956</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75">
+    <row r="157" spans="1:13" ht="15.75">
       <c r="A157" s="1">
         <v>39676</v>
       </c>
+      <c r="B157" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E157" s="8">
         <v>0.254</v>
       </c>
@@ -3219,10 +3719,13 @@
         <v>29.926041666666677</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15.75">
+    <row r="158" spans="1:13" ht="15.75">
       <c r="A158" s="1">
         <v>39677</v>
       </c>
+      <c r="B158" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E158" s="8">
         <v>0</v>
       </c>
@@ -3233,10 +3736,13 @@
         <v>30.520208333333333</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15.75">
+    <row r="159" spans="1:13" ht="15.75">
       <c r="A159" s="1">
         <v>39678</v>
       </c>
+      <c r="B159" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E159" s="8">
         <v>0</v>
       </c>
@@ -3247,9 +3753,12 @@
         <v>29.578333333333333</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15.75">
+    <row r="160" spans="1:13" ht="15.75">
       <c r="A160" s="1">
         <v>39679</v>
+      </c>
+      <c r="B160" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E160" s="8">
         <v>52.83</v>
@@ -3263,6 +3772,9 @@
       <c r="A161" s="1">
         <v>39680</v>
       </c>
+      <c r="B161" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E161" s="8">
         <v>77.72</v>
       </c>
@@ -3273,6 +3785,9 @@
       <c r="A162" s="1">
         <v>39681</v>
       </c>
+      <c r="B162" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E162" s="8">
         <v>0</v>
       </c>
@@ -3285,6 +3800,9 @@
       <c r="A163" s="1">
         <v>39682</v>
       </c>
+      <c r="B163" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E163" s="8">
         <v>10.41</v>
       </c>
@@ -3299,6 +3817,9 @@
       <c r="A164" s="1">
         <v>39683</v>
       </c>
+      <c r="B164" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E164" s="8">
         <v>11.18</v>
       </c>
@@ -3313,6 +3834,9 @@
       <c r="A165" s="1">
         <v>39684</v>
       </c>
+      <c r="B165" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E165" s="8">
         <v>0</v>
       </c>
@@ -3327,6 +3851,9 @@
       <c r="A166" s="1">
         <v>39685</v>
       </c>
+      <c r="B166" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E166" s="8">
         <v>19.809999999999999</v>
       </c>
@@ -3341,6 +3868,9 @@
       <c r="A167" s="1">
         <v>39686</v>
       </c>
+      <c r="B167" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E167" s="8">
         <v>26.92</v>
       </c>
@@ -3355,6 +3885,9 @@
       <c r="A168" s="1">
         <v>39687</v>
       </c>
+      <c r="B168" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E168" s="8">
         <v>2.286</v>
       </c>
@@ -3369,6 +3902,9 @@
       <c r="A169" s="1">
         <v>39688</v>
       </c>
+      <c r="B169" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E169" s="8">
         <v>3.302</v>
       </c>
@@ -3383,6 +3919,9 @@
       <c r="A170" s="1">
         <v>39689</v>
       </c>
+      <c r="B170" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E170" s="8">
         <v>1.524</v>
       </c>
@@ -3397,6 +3936,9 @@
       <c r="A171" s="1">
         <v>39690</v>
       </c>
+      <c r="B171" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E171" s="8">
         <v>0</v>
       </c>
@@ -3411,6 +3953,9 @@
       <c r="A172" s="1">
         <v>39691</v>
       </c>
+      <c r="B172" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E172" s="8">
         <v>6.35</v>
       </c>
@@ -3425,6 +3970,9 @@
       <c r="A173" s="1">
         <v>39692</v>
       </c>
+      <c r="B173" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E173" s="8">
         <v>6.6040000000000001</v>
       </c>
@@ -3439,6 +3987,9 @@
       <c r="A174" s="1">
         <v>39693</v>
       </c>
+      <c r="B174" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E174" s="8">
         <v>0</v>
       </c>
@@ -3453,6 +4004,9 @@
       <c r="A175" s="1">
         <v>39694</v>
       </c>
+      <c r="B175" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E175" s="8">
         <v>0</v>
       </c>
@@ -3467,6 +4021,9 @@
       <c r="A176" s="1">
         <v>39695</v>
       </c>
+      <c r="B176" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E176" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -3481,6 +4038,9 @@
       <c r="A177" s="1">
         <v>39696</v>
       </c>
+      <c r="B177" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E177" s="8">
         <v>11.18</v>
       </c>
@@ -3495,6 +4055,9 @@
       <c r="A178" s="1">
         <v>39697</v>
       </c>
+      <c r="B178" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E178" s="8">
         <v>10.41</v>
       </c>
@@ -3509,6 +4072,9 @@
       <c r="A179" s="1">
         <v>39698</v>
       </c>
+      <c r="B179" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E179" s="8">
         <v>0</v>
       </c>
@@ -3523,6 +4089,9 @@
       <c r="A180" s="1">
         <v>39699</v>
       </c>
+      <c r="B180" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E180" s="8">
         <v>0</v>
       </c>
@@ -3537,6 +4106,9 @@
       <c r="A181" s="1">
         <v>39700</v>
       </c>
+      <c r="B181" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E181" s="8">
         <v>0</v>
       </c>
@@ -3551,6 +4123,9 @@
       <c r="A182" s="1">
         <v>39701</v>
       </c>
+      <c r="B182" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E182" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3565,6 +4140,9 @@
       <c r="A183" s="1">
         <v>39702</v>
       </c>
+      <c r="B183" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E183" s="8">
         <v>0</v>
       </c>
@@ -3577,6 +4155,9 @@
       <c r="A184" s="1">
         <v>39703</v>
       </c>
+      <c r="B184" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E184" s="8">
         <v>0</v>
       </c>
@@ -3591,6 +4172,9 @@
       <c r="A185" s="1">
         <v>39704</v>
       </c>
+      <c r="B185" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E185" s="8">
         <v>0</v>
       </c>
@@ -3605,6 +4189,9 @@
       <c r="A186" s="1">
         <v>39705</v>
       </c>
+      <c r="B186" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E186" s="8">
         <v>0</v>
       </c>
@@ -3617,6 +4204,9 @@
       <c r="A187" s="1">
         <v>39706</v>
       </c>
+      <c r="B187" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E187" s="8">
         <v>0</v>
       </c>
@@ -3640,6 +4230,9 @@
       <c r="A188" s="1">
         <v>39707</v>
       </c>
+      <c r="B188" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E188" s="8">
         <v>0</v>
       </c>
@@ -3654,6 +4247,9 @@
       <c r="A189" s="1">
         <v>39708</v>
       </c>
+      <c r="B189" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E189" s="8">
         <v>0</v>
       </c>
@@ -3668,6 +4264,9 @@
       <c r="A190" s="1">
         <v>39709</v>
       </c>
+      <c r="B190" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E190" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3682,6 +4281,9 @@
       <c r="A191" s="1">
         <v>39710</v>
       </c>
+      <c r="B191" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E191" s="8">
         <v>0</v>
       </c>
@@ -3696,6 +4298,9 @@
       <c r="A192" s="1">
         <v>39711</v>
       </c>
+      <c r="B192" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E192" s="8">
         <v>0</v>
       </c>
@@ -3710,6 +4315,9 @@
       <c r="A193" s="1">
         <v>39712</v>
       </c>
+      <c r="B193" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E193" s="8">
         <v>1.27</v>
       </c>
@@ -3724,6 +4332,9 @@
       <c r="A194" s="1">
         <v>39713</v>
       </c>
+      <c r="B194" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E194" s="8">
         <v>0</v>
       </c>
@@ -3738,6 +4349,9 @@
       <c r="A195" s="1">
         <v>39714</v>
       </c>
+      <c r="B195" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E195" s="8">
         <v>22.1</v>
       </c>
@@ -3752,6 +4366,9 @@
       <c r="A196" s="1">
         <v>39715</v>
       </c>
+      <c r="B196" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E196" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -3766,6 +4383,9 @@
       <c r="A197" s="1">
         <v>39716</v>
       </c>
+      <c r="B197" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E197" s="8">
         <v>0</v>
       </c>
@@ -3780,6 +4400,9 @@
       <c r="A198" s="1">
         <v>39717</v>
       </c>
+      <c r="B198" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E198" s="8">
         <v>0</v>
       </c>
@@ -3794,6 +4417,9 @@
       <c r="A199" s="1">
         <v>39718</v>
       </c>
+      <c r="B199" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E199" s="8">
         <v>0</v>
       </c>
@@ -3808,6 +4434,9 @@
       <c r="A200" s="1">
         <v>39719</v>
       </c>
+      <c r="B200" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E200" s="8">
         <v>0</v>
       </c>
@@ -3822,6 +4451,9 @@
       <c r="A201" s="1">
         <v>39720</v>
       </c>
+      <c r="B201" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E201" s="8">
         <v>0</v>
       </c>
@@ -3836,6 +4468,9 @@
       <c r="A202" s="1">
         <v>39721</v>
       </c>
+      <c r="B202" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E202" s="8">
         <v>22.35</v>
       </c>
@@ -3850,6 +4485,9 @@
       <c r="A203" s="1">
         <v>39722</v>
       </c>
+      <c r="B203" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E203" s="8">
         <v>4.3179999999999996</v>
       </c>
@@ -3864,6 +4502,9 @@
       <c r="A204" s="1">
         <v>39723</v>
       </c>
+      <c r="B204" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E204" s="8">
         <v>0</v>
       </c>
@@ -3878,6 +4519,9 @@
       <c r="A205" s="1">
         <v>39724</v>
       </c>
+      <c r="B205" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E205" s="8">
         <v>0</v>
       </c>
@@ -3892,6 +4536,9 @@
       <c r="A206" s="1">
         <v>39725</v>
       </c>
+      <c r="B206" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E206" s="8">
         <v>0</v>
       </c>
@@ -3906,6 +4553,9 @@
       <c r="A207" s="1">
         <v>39726</v>
       </c>
+      <c r="B207" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E207" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3920,6 +4570,9 @@
       <c r="A208" s="1">
         <v>39727</v>
       </c>
+      <c r="B208" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E208" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3934,6 +4587,9 @@
       <c r="A209" s="1">
         <v>39728</v>
       </c>
+      <c r="B209" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E209" s="8">
         <v>1.016</v>
       </c>
@@ -3948,6 +4604,9 @@
       <c r="A210" s="1">
         <v>39729</v>
       </c>
+      <c r="B210" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E210" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -3962,6 +4621,9 @@
       <c r="A211" s="1">
         <v>39730</v>
       </c>
+      <c r="B211" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E211" s="8">
         <v>7.1120000000000001</v>
       </c>
@@ -3976,6 +4638,9 @@
       <c r="A212" s="1">
         <v>39731</v>
       </c>
+      <c r="B212" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E212" s="8">
         <v>52.07</v>
       </c>
@@ -3990,6 +4655,9 @@
       <c r="A213" s="1">
         <v>39732</v>
       </c>
+      <c r="B213" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E213" s="8">
         <v>0</v>
       </c>
@@ -4004,6 +4672,9 @@
       <c r="A214" s="1">
         <v>39733</v>
       </c>
+      <c r="B214" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E214" s="8">
         <v>0</v>
       </c>
@@ -4018,6 +4689,9 @@
       <c r="A215" s="1">
         <v>39734</v>
       </c>
+      <c r="B215" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E215" s="8">
         <v>0</v>
       </c>
@@ -4032,6 +4706,9 @@
       <c r="A216" s="1">
         <v>39735</v>
       </c>
+      <c r="B216" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E216" s="8">
         <v>4.3179999999999996</v>
       </c>
@@ -4046,6 +4723,9 @@
       <c r="A217" s="1">
         <v>39736</v>
       </c>
+      <c r="B217" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E217" s="8">
         <v>0.254</v>
       </c>
@@ -4069,6 +4749,9 @@
       <c r="A218" s="1">
         <v>39737</v>
       </c>
+      <c r="B218" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E218" s="8">
         <v>0</v>
       </c>
@@ -4083,6 +4766,9 @@
       <c r="A219" s="1">
         <v>39738</v>
       </c>
+      <c r="B219" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E219" s="8">
         <v>0</v>
       </c>
@@ -4097,6 +4783,9 @@
       <c r="A220" s="1">
         <v>39739</v>
       </c>
+      <c r="B220" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E220" s="8">
         <v>0</v>
       </c>
@@ -4111,6 +4800,9 @@
       <c r="A221" s="1">
         <v>39740</v>
       </c>
+      <c r="B221" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E221" s="8">
         <v>0</v>
       </c>
@@ -4125,6 +4817,9 @@
       <c r="A222" s="1">
         <v>39741</v>
       </c>
+      <c r="B222" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E222" s="8">
         <v>0</v>
       </c>
@@ -4139,6 +4834,9 @@
       <c r="A223" s="1">
         <v>39742</v>
       </c>
+      <c r="B223" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E223" s="8">
         <v>0</v>
       </c>
@@ -4153,6 +4851,9 @@
       <c r="A224" s="1">
         <v>39743</v>
       </c>
+      <c r="B224" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E224" s="8">
         <v>0</v>
       </c>
@@ -4165,6 +4866,9 @@
       <c r="A225" s="1">
         <v>39744</v>
       </c>
+      <c r="B225" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E225" s="8">
         <v>0</v>
       </c>
@@ -4179,6 +4883,9 @@
       <c r="A226" s="1">
         <v>39745</v>
       </c>
+      <c r="B226" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E226" s="8">
         <v>11.68</v>
       </c>
@@ -4193,6 +4900,9 @@
       <c r="A227" s="1">
         <v>39746</v>
       </c>
+      <c r="B227" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E227" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -4207,6 +4917,9 @@
       <c r="A228" s="1">
         <v>39747</v>
       </c>
+      <c r="B228" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E228" s="8">
         <v>2.54</v>
       </c>
@@ -4221,6 +4934,9 @@
       <c r="A229" s="1">
         <v>39748</v>
       </c>
+      <c r="B229" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E229" s="8">
         <v>0</v>
       </c>
@@ -4235,6 +4951,9 @@
       <c r="A230" s="1">
         <v>39749</v>
       </c>
+      <c r="B230" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E230" s="8">
         <v>0</v>
       </c>
@@ -4249,6 +4968,9 @@
       <c r="A231" s="1">
         <v>39750</v>
       </c>
+      <c r="B231" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E231" s="8">
         <v>0</v>
       </c>
@@ -4263,6 +4985,9 @@
       <c r="A232" s="1">
         <v>39751</v>
       </c>
+      <c r="B232" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E232" s="8">
         <v>0</v>
       </c>
@@ -4277,6 +5002,9 @@
       <c r="A233" s="1">
         <v>39752</v>
       </c>
+      <c r="B233" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E233" s="8">
         <v>0</v>
       </c>
@@ -4291,6 +5019,9 @@
       <c r="A234" s="1">
         <v>39753</v>
       </c>
+      <c r="B234" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E234" s="8"/>
       <c r="F234" s="5">
         <v>18.267916666666654</v>
@@ -4303,6 +5034,9 @@
       <c r="A235" s="1">
         <v>39754</v>
       </c>
+      <c r="B235" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E235" s="8"/>
       <c r="F235" s="5">
         <v>18.275416666666651</v>
@@ -4315,6 +5049,9 @@
       <c r="A236" s="1">
         <v>39755</v>
       </c>
+      <c r="B236" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E236" s="8"/>
       <c r="F236" s="5">
         <v>18.270937499999985</v>
@@ -4327,6 +5064,9 @@
       <c r="A237" s="1">
         <v>39756</v>
       </c>
+      <c r="B237" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E237" s="8">
         <v>0</v>
       </c>
@@ -4341,6 +5081,9 @@
       <c r="A238" s="1">
         <v>39757</v>
       </c>
+      <c r="B238" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E238" s="8">
         <v>0</v>
       </c>
@@ -4355,6 +5098,9 @@
       <c r="A239" s="1">
         <v>39758</v>
       </c>
+      <c r="B239" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E239" s="8">
         <v>0</v>
       </c>
@@ -4369,6 +5115,9 @@
       <c r="A240" s="1">
         <v>39759</v>
       </c>
+      <c r="B240" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E240" s="8">
         <v>0</v>
       </c>
@@ -4383,6 +5132,9 @@
       <c r="A241" s="1">
         <v>39760</v>
       </c>
+      <c r="B241" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E241" s="8">
         <v>0</v>
       </c>
@@ -4397,6 +5149,9 @@
       <c r="A242" s="1">
         <v>39761</v>
       </c>
+      <c r="B242" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E242" s="8">
         <v>0</v>
       </c>
@@ -4411,6 +5166,9 @@
       <c r="A243" s="1">
         <v>39762</v>
       </c>
+      <c r="B243" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E243" s="8">
         <v>0</v>
       </c>
@@ -4425,6 +5183,9 @@
       <c r="A244" s="1">
         <v>39763</v>
       </c>
+      <c r="B244" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E244" s="8">
         <v>0</v>
       </c>
@@ -4439,6 +5200,9 @@
       <c r="A245" s="1">
         <v>39764</v>
       </c>
+      <c r="B245" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E245" s="8">
         <v>0</v>
       </c>
@@ -4453,6 +5217,9 @@
       <c r="A246" s="1">
         <v>39765</v>
       </c>
+      <c r="B246" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E246" s="8">
         <v>0</v>
       </c>
@@ -4467,6 +5234,9 @@
       <c r="A247" s="1">
         <v>39766</v>
       </c>
+      <c r="B247" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E247" s="8">
         <v>0.254</v>
       </c>
@@ -4481,6 +5251,9 @@
       <c r="A248" s="1">
         <v>39767</v>
       </c>
+      <c r="B248" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E248" s="8">
         <v>0</v>
       </c>
@@ -4495,6 +5268,9 @@
       <c r="A249" s="1">
         <v>39768</v>
       </c>
+      <c r="B249" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E249" s="8">
         <v>0</v>
       </c>
@@ -4509,6 +5285,9 @@
       <c r="A250" s="1">
         <v>39769</v>
       </c>
+      <c r="B250" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E250" s="8">
         <v>0</v>
       </c>
@@ -4530,6 +5309,9 @@
       <c r="A251" s="1">
         <v>39770</v>
       </c>
+      <c r="B251" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E251" s="8">
         <v>0</v>
       </c>
@@ -4544,6 +5326,9 @@
       <c r="A252" s="1">
         <v>39771</v>
       </c>
+      <c r="B252" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E252" s="8">
         <v>0</v>
       </c>
@@ -4558,6 +5343,9 @@
       <c r="A253" s="1">
         <v>39772</v>
       </c>
+      <c r="B253" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E253" s="8">
         <v>0</v>
       </c>
@@ -4572,6 +5360,9 @@
       <c r="A254" s="1">
         <v>39773</v>
       </c>
+      <c r="B254" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E254" s="8">
         <v>0</v>
       </c>
@@ -4586,6 +5377,9 @@
       <c r="A255" s="1">
         <v>39774</v>
       </c>
+      <c r="B255" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E255" s="8">
         <v>0</v>
       </c>
@@ -4600,6 +5394,9 @@
       <c r="A256" s="1">
         <v>39775</v>
       </c>
+      <c r="B256" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E256" s="8">
         <v>0</v>
       </c>
@@ -4614,6 +5411,9 @@
       <c r="A257" s="1">
         <v>39776</v>
       </c>
+      <c r="B257" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E257" s="8">
         <v>0</v>
       </c>
@@ -4628,6 +5428,9 @@
       <c r="A258" s="1">
         <v>39777</v>
       </c>
+      <c r="B258" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E258" s="8">
         <v>0</v>
       </c>
@@ -4642,6 +5445,9 @@
       <c r="A259" s="1">
         <v>39778</v>
       </c>
+      <c r="B259" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E259" s="8">
         <v>0</v>
       </c>
@@ -4656,6 +5462,9 @@
       <c r="A260" s="1">
         <v>39779</v>
       </c>
+      <c r="B260" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E260" s="8">
         <v>0</v>
       </c>
@@ -4670,6 +5479,9 @@
       <c r="A261" s="1">
         <v>39780</v>
       </c>
+      <c r="B261" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E261" s="8">
         <v>0</v>
       </c>
@@ -4684,6 +5496,9 @@
       <c r="A262" s="1">
         <v>39781</v>
       </c>
+      <c r="B262" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E262" s="8">
         <v>0</v>
       </c>
@@ -4698,6 +5513,9 @@
       <c r="A263" s="1">
         <v>39782</v>
       </c>
+      <c r="B263" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E263" s="8">
         <v>0</v>
       </c>
@@ -4712,6 +5530,9 @@
       <c r="A264" s="1">
         <v>39783</v>
       </c>
+      <c r="B264" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E264" s="8">
         <v>8.89</v>
       </c>
@@ -4726,6 +5547,9 @@
       <c r="A265" s="1">
         <v>39784</v>
       </c>
+      <c r="B265" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E265" s="8">
         <v>1.016</v>
       </c>
@@ -4740,6 +5564,9 @@
       <c r="A266" s="1">
         <v>39785</v>
       </c>
+      <c r="B266" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E266" s="8">
         <v>0.254</v>
       </c>
@@ -4754,6 +5581,9 @@
       <c r="A267" s="1">
         <v>39786</v>
       </c>
+      <c r="B267" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E267" s="8">
         <v>0</v>
       </c>
@@ -4768,6 +5598,9 @@
       <c r="A268" s="1">
         <v>39787</v>
       </c>
+      <c r="B268" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E268" s="8">
         <v>0</v>
       </c>
@@ -4782,6 +5615,9 @@
       <c r="A269" s="1">
         <v>39788</v>
       </c>
+      <c r="B269" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E269" s="8">
         <v>0</v>
       </c>
@@ -4796,6 +5632,9 @@
       <c r="A270" s="1">
         <v>39789</v>
       </c>
+      <c r="B270" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E270" s="8">
         <v>0</v>
       </c>
@@ -4810,6 +5649,9 @@
       <c r="A271" s="1">
         <v>39790</v>
       </c>
+      <c r="B271" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E271" s="8">
         <v>0</v>
       </c>
@@ -4824,6 +5666,9 @@
       <c r="A272" s="1">
         <v>39791</v>
       </c>
+      <c r="B272" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E272" s="8">
         <v>0</v>
       </c>
@@ -4838,6 +5683,9 @@
       <c r="A273" s="1">
         <v>39792</v>
       </c>
+      <c r="B273" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E273" s="8">
         <v>0.254</v>
       </c>
@@ -4852,6 +5700,9 @@
       <c r="A274" s="1">
         <v>39793</v>
       </c>
+      <c r="B274" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E274" s="8">
         <v>0</v>
       </c>
@@ -4866,6 +5717,9 @@
       <c r="A275" s="1">
         <v>39794</v>
       </c>
+      <c r="B275" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E275" s="8">
         <v>26.42</v>
       </c>
@@ -4880,6 +5734,9 @@
       <c r="A276" s="1">
         <v>39795</v>
       </c>
+      <c r="B276" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E276" s="8">
         <v>0</v>
       </c>
@@ -4894,6 +5751,9 @@
       <c r="A277" s="1">
         <v>39796</v>
       </c>
+      <c r="B277" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E277" s="8">
         <v>0</v>
       </c>
@@ -4908,6 +5768,9 @@
       <c r="A278" s="1">
         <v>39797</v>
       </c>
+      <c r="B278" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E278" s="8">
         <v>0</v>
       </c>
@@ -4931,6 +5794,9 @@
       <c r="A279" s="1">
         <v>39798</v>
       </c>
+      <c r="B279" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E279" s="8">
         <v>0</v>
       </c>
@@ -4945,6 +5811,9 @@
       <c r="A280" s="1">
         <v>39799</v>
       </c>
+      <c r="B280" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E280" s="8">
         <v>0.254</v>
       </c>
@@ -4959,6 +5828,9 @@
       <c r="A281" s="1">
         <v>39800</v>
       </c>
+      <c r="B281" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E281" s="8">
         <v>0</v>
       </c>
@@ -4973,6 +5845,9 @@
       <c r="A282" s="1">
         <v>39801</v>
       </c>
+      <c r="B282" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E282" s="8">
         <v>0</v>
       </c>
@@ -4987,6 +5862,9 @@
       <c r="A283" s="1">
         <v>39802</v>
       </c>
+      <c r="B283" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E283" s="8">
         <v>0.254</v>
       </c>
@@ -5001,6 +5879,9 @@
       <c r="A284" s="1">
         <v>39803</v>
       </c>
+      <c r="B284" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E284" s="8">
         <v>0</v>
       </c>
@@ -5015,6 +5896,9 @@
       <c r="A285" s="1">
         <v>39804</v>
       </c>
+      <c r="B285" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E285" s="8">
         <v>0</v>
       </c>
@@ -5029,6 +5913,9 @@
       <c r="A286" s="1">
         <v>39805</v>
       </c>
+      <c r="B286" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E286" s="8">
         <v>0</v>
       </c>
@@ -5043,6 +5930,9 @@
       <c r="A287" s="1">
         <v>39806</v>
       </c>
+      <c r="B287" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E287" s="8">
         <v>0</v>
       </c>
@@ -5057,6 +5947,9 @@
       <c r="A288" s="1">
         <v>39807</v>
       </c>
+      <c r="B288" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E288" s="8">
         <v>3.556</v>
       </c>
@@ -5071,6 +5964,9 @@
       <c r="A289" s="1">
         <v>39808</v>
       </c>
+      <c r="B289" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E289" s="8">
         <v>0.254</v>
       </c>
@@ -5085,6 +5981,9 @@
       <c r="A290" s="1">
         <v>39809</v>
       </c>
+      <c r="B290" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E290" s="8">
         <v>0</v>
       </c>
@@ -5099,6 +5998,9 @@
       <c r="A291" s="1">
         <v>39810</v>
       </c>
+      <c r="B291" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E291" s="8">
         <v>0</v>
       </c>
@@ -5113,6 +6015,9 @@
       <c r="A292" s="1">
         <v>39811</v>
       </c>
+      <c r="B292" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E292" s="8">
         <v>0.254</v>
       </c>
@@ -5127,6 +6032,9 @@
       <c r="A293" s="1">
         <v>39812</v>
       </c>
+      <c r="B293" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E293" s="8">
         <v>0</v>
       </c>
@@ -5141,6 +6049,9 @@
       <c r="A294" s="1">
         <v>39813</v>
       </c>
+      <c r="B294" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E294" s="8">
         <v>0</v>
       </c>
@@ -5155,6 +6066,9 @@
       <c r="A295" s="1">
         <v>39814</v>
       </c>
+      <c r="B295" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E295" s="8">
         <v>0</v>
       </c>
@@ -5169,6 +6083,9 @@
       <c r="A296" s="1">
         <v>39815</v>
       </c>
+      <c r="B296" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E296" s="8">
         <v>0</v>
       </c>
@@ -5183,6 +6100,9 @@
       <c r="A297" s="1">
         <v>39816</v>
       </c>
+      <c r="B297" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E297" s="8">
         <v>0</v>
       </c>
@@ -5197,6 +6117,9 @@
       <c r="A298" s="1">
         <v>39817</v>
       </c>
+      <c r="B298" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E298" s="8">
         <v>0</v>
       </c>
@@ -5211,6 +6134,9 @@
       <c r="A299" s="1">
         <v>39818</v>
       </c>
+      <c r="B299" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E299" s="8">
         <v>0</v>
       </c>
@@ -5225,6 +6151,9 @@
       <c r="A300" s="1">
         <v>39819</v>
       </c>
+      <c r="B300" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E300" s="8">
         <v>0</v>
       </c>
@@ -5239,6 +6168,9 @@
       <c r="A301" s="1">
         <v>39820</v>
       </c>
+      <c r="B301" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E301" s="8">
         <v>0</v>
       </c>
@@ -5253,6 +6185,9 @@
       <c r="A302" s="1">
         <v>39821</v>
       </c>
+      <c r="B302" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E302" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -5267,6 +6202,9 @@
       <c r="A303" s="1">
         <v>39822</v>
       </c>
+      <c r="B303" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E303" s="8">
         <v>0</v>
       </c>
@@ -5281,6 +6219,9 @@
       <c r="A304" s="1">
         <v>39823</v>
       </c>
+      <c r="B304" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E304" s="8">
         <v>0</v>
       </c>
@@ -5295,6 +6236,9 @@
       <c r="A305" s="1">
         <v>39824</v>
       </c>
+      <c r="B305" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E305" s="8">
         <v>0</v>
       </c>
@@ -5309,6 +6253,9 @@
       <c r="A306" s="1">
         <v>39825</v>
       </c>
+      <c r="B306" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E306" s="8">
         <v>0</v>
       </c>
@@ -5323,6 +6270,9 @@
       <c r="A307" s="1">
         <v>39826</v>
       </c>
+      <c r="B307" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E307" s="8">
         <v>0</v>
       </c>
@@ -5337,6 +6287,9 @@
       <c r="A308" s="1">
         <v>39827</v>
       </c>
+      <c r="B308" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E308" s="8">
         <v>3.81</v>
       </c>
@@ -5351,6 +6304,9 @@
       <c r="A309" s="1">
         <v>39828</v>
       </c>
+      <c r="B309" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E309" s="8">
         <v>0</v>
       </c>
@@ -5365,6 +6321,9 @@
       <c r="A310" s="1">
         <v>39829</v>
       </c>
+      <c r="B310" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E310" s="8">
         <v>0</v>
       </c>
@@ -5379,6 +6338,9 @@
       <c r="A311" s="1">
         <v>39830</v>
       </c>
+      <c r="B311" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E311" s="8">
         <v>0</v>
       </c>
@@ -5393,6 +6355,9 @@
       <c r="A312" s="1">
         <v>39831</v>
       </c>
+      <c r="B312" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E312" s="8">
         <v>0</v>
       </c>
@@ -5407,6 +6372,9 @@
       <c r="A313" s="1">
         <v>39832</v>
       </c>
+      <c r="B313" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E313" s="8">
         <v>0</v>
       </c>
@@ -5430,6 +6398,9 @@
       <c r="A314" s="1">
         <v>39833</v>
       </c>
+      <c r="B314" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E314" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -5444,6 +6415,9 @@
       <c r="A315" s="1">
         <v>39834</v>
       </c>
+      <c r="B315" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E315" s="8">
         <v>0</v>
       </c>
@@ -5458,6 +6432,9 @@
       <c r="A316" s="1">
         <v>39835</v>
       </c>
+      <c r="B316" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E316" s="8">
         <v>0</v>
       </c>
@@ -5472,6 +6449,9 @@
       <c r="A317" s="1">
         <v>39836</v>
       </c>
+      <c r="B317" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E317" s="8">
         <v>0</v>
       </c>
@@ -5486,6 +6466,9 @@
       <c r="A318" s="1">
         <v>39837</v>
       </c>
+      <c r="B318" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E318" s="8">
         <v>0</v>
       </c>
@@ -5500,6 +6483,9 @@
       <c r="A319" s="1">
         <v>39838</v>
       </c>
+      <c r="B319" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E319" s="8">
         <v>0</v>
       </c>
@@ -5514,6 +6500,9 @@
       <c r="A320" s="1">
         <v>39839</v>
       </c>
+      <c r="B320" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E320" s="8">
         <v>0</v>
       </c>
@@ -5528,6 +6517,9 @@
       <c r="A321" s="1">
         <v>39840</v>
       </c>
+      <c r="B321" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E321" s="8">
         <v>0</v>
       </c>
@@ -5542,6 +6534,9 @@
       <c r="A322" s="1">
         <v>39841</v>
       </c>
+      <c r="B322" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E322" s="8">
         <v>0</v>
       </c>
@@ -5556,6 +6551,9 @@
       <c r="A323" s="1">
         <v>39842</v>
       </c>
+      <c r="B323" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E323" s="8">
         <v>0</v>
       </c>
@@ -5570,6 +6568,9 @@
       <c r="A324" s="1">
         <v>39843</v>
       </c>
+      <c r="B324" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E324" s="8">
         <v>5.08</v>
       </c>
@@ -5584,6 +6585,9 @@
       <c r="A325" s="1">
         <v>39844</v>
       </c>
+      <c r="B325" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E325" s="8">
         <v>6.8579999999999997</v>
       </c>
@@ -5598,6 +6602,9 @@
       <c r="A326" s="1">
         <v>39845</v>
       </c>
+      <c r="B326" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E326" s="8">
         <v>0</v>
       </c>
@@ -5612,6 +6619,9 @@
       <c r="A327" s="1">
         <v>39846</v>
       </c>
+      <c r="B327" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E327" s="8">
         <v>2.794</v>
       </c>
@@ -5626,6 +6636,9 @@
       <c r="A328" s="1">
         <v>39847</v>
       </c>
+      <c r="B328" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E328" s="8">
         <v>5.8419999999999996</v>
       </c>
@@ -5640,6 +6653,9 @@
       <c r="A329" s="1">
         <v>39848</v>
       </c>
+      <c r="B329" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E329" s="8">
         <v>0</v>
       </c>
@@ -5654,6 +6670,9 @@
       <c r="A330" s="1">
         <v>39849</v>
       </c>
+      <c r="B330" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E330" s="8">
         <v>0</v>
       </c>
@@ -5668,6 +6687,9 @@
       <c r="A331" s="1">
         <v>39850</v>
       </c>
+      <c r="B331" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E331" s="8">
         <v>0</v>
       </c>
@@ -5682,6 +6704,9 @@
       <c r="A332" s="1">
         <v>39851</v>
       </c>
+      <c r="B332" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E332" s="8">
         <v>0</v>
       </c>
@@ -5696,6 +6721,9 @@
       <c r="A333" s="1">
         <v>39852</v>
       </c>
+      <c r="B333" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E333" s="8">
         <v>0</v>
       </c>
@@ -5710,6 +6738,9 @@
       <c r="A334" s="1">
         <v>39853</v>
       </c>
+      <c r="B334" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E334" s="8">
         <v>0</v>
       </c>
@@ -5724,6 +6755,9 @@
       <c r="A335" s="1">
         <v>39854</v>
       </c>
+      <c r="B335" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E335" s="8">
         <v>0</v>
       </c>
@@ -5738,6 +6772,9 @@
       <c r="A336" s="1">
         <v>39855</v>
       </c>
+      <c r="B336" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E336" s="8">
         <v>0</v>
       </c>
@@ -5752,6 +6789,9 @@
       <c r="A337" s="1">
         <v>39856</v>
       </c>
+      <c r="B337" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E337" s="8">
         <v>0</v>
       </c>
@@ -5766,6 +6806,9 @@
       <c r="A338" s="1">
         <v>39857</v>
       </c>
+      <c r="B338" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E338" s="8">
         <v>0</v>
       </c>
@@ -5780,6 +6823,9 @@
       <c r="A339" s="1">
         <v>39858</v>
       </c>
+      <c r="B339" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E339" s="8">
         <v>0</v>
       </c>
@@ -5794,6 +6840,9 @@
       <c r="A340" s="1">
         <v>39859</v>
       </c>
+      <c r="B340" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E340" s="8">
         <v>0</v>
       </c>
@@ -5808,6 +6857,9 @@
       <c r="A341" s="1">
         <v>39860</v>
       </c>
+      <c r="B341" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E341" s="8">
         <v>0</v>
       </c>
@@ -5822,6 +6874,9 @@
       <c r="A342" s="1">
         <v>39861</v>
       </c>
+      <c r="B342" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E342" s="8">
         <v>0</v>
       </c>
@@ -5845,6 +6900,9 @@
       <c r="A343" s="1">
         <v>39862</v>
       </c>
+      <c r="B343" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E343" s="8">
         <v>0</v>
       </c>
@@ -5859,6 +6917,9 @@
       <c r="A344" s="1">
         <v>39863</v>
       </c>
+      <c r="B344" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E344" s="8">
         <v>0</v>
       </c>
@@ -5873,6 +6934,9 @@
       <c r="A345" s="1">
         <v>39864</v>
       </c>
+      <c r="B345" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E345" s="8">
         <v>0.254</v>
       </c>
@@ -5887,6 +6951,9 @@
       <c r="A346" s="1">
         <v>39865</v>
       </c>
+      <c r="B346" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E346" s="8">
         <v>0</v>
       </c>
@@ -5901,6 +6968,9 @@
       <c r="A347" s="1">
         <v>39866</v>
       </c>
+      <c r="B347" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E347" s="8">
         <v>0</v>
       </c>
@@ -5915,6 +6985,9 @@
       <c r="A348" s="1">
         <v>39867</v>
       </c>
+      <c r="B348" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E348" s="8">
         <v>0</v>
       </c>
@@ -5929,6 +7002,9 @@
       <c r="A349" s="1">
         <v>39868</v>
       </c>
+      <c r="B349" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E349" s="8">
         <v>0</v>
       </c>
@@ -5943,6 +7019,9 @@
       <c r="A350" s="1">
         <v>39869</v>
       </c>
+      <c r="B350" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E350" s="8">
         <v>0</v>
       </c>
@@ -5957,6 +7036,9 @@
       <c r="A351" s="1">
         <v>39870</v>
       </c>
+      <c r="B351" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E351" s="8">
         <v>0</v>
       </c>
@@ -5971,6 +7053,9 @@
       <c r="A352" s="1">
         <v>39871</v>
       </c>
+      <c r="B352" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E352" s="8">
         <v>0</v>
       </c>
@@ -5985,6 +7070,9 @@
       <c r="A353" s="1">
         <v>39872</v>
       </c>
+      <c r="B353" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E353" s="8">
         <v>0</v>
       </c>
@@ -5999,6 +7087,9 @@
       <c r="A354" s="1">
         <v>39873</v>
       </c>
+      <c r="B354" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E354" s="8">
         <v>0</v>
       </c>
@@ -6013,6 +7104,9 @@
       <c r="A355" s="1">
         <v>39874</v>
       </c>
+      <c r="B355" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E355" s="8">
         <v>0</v>
       </c>
@@ -6027,6 +7121,9 @@
       <c r="A356" s="1">
         <v>39875</v>
       </c>
+      <c r="B356" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E356" s="8">
         <v>0</v>
       </c>
@@ -6041,6 +7138,9 @@
       <c r="A357" s="1">
         <v>39876</v>
       </c>
+      <c r="B357" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E357" s="8">
         <v>0</v>
       </c>
@@ -6055,6 +7155,9 @@
       <c r="A358" s="1">
         <v>39877</v>
       </c>
+      <c r="B358" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E358" s="8">
         <v>0</v>
       </c>
@@ -6069,6 +7172,9 @@
       <c r="A359" s="1">
         <v>39878</v>
       </c>
+      <c r="B359" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E359" s="8">
         <v>0</v>
       </c>
@@ -6083,6 +7189,9 @@
       <c r="A360" s="1">
         <v>39879</v>
       </c>
+      <c r="B360" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E360" s="8">
         <v>0</v>
       </c>
@@ -6097,6 +7206,9 @@
       <c r="A361" s="1">
         <v>39880</v>
       </c>
+      <c r="B361" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E361" s="8">
         <v>0</v>
       </c>
@@ -6111,6 +7223,9 @@
       <c r="A362" s="1">
         <v>39881</v>
       </c>
+      <c r="B362" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E362" s="8">
         <v>0</v>
       </c>
@@ -6125,6 +7240,9 @@
       <c r="A363" s="1">
         <v>39882</v>
       </c>
+      <c r="B363" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E363" s="8">
         <v>0</v>
       </c>
@@ -6135,6 +7253,9 @@
       <c r="A364" s="1">
         <v>39883</v>
       </c>
+      <c r="B364" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E364" s="8">
         <v>0</v>
       </c>
@@ -6147,6 +7268,9 @@
       <c r="A365" s="1">
         <v>39884</v>
       </c>
+      <c r="B365" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E365" s="8">
         <v>0</v>
       </c>
@@ -6159,6 +7283,9 @@
       <c r="A366" s="1">
         <v>39885</v>
       </c>
+      <c r="B366" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E366" s="8">
         <v>0</v>
       </c>
@@ -6171,6 +7298,9 @@
       <c r="A367" s="1">
         <v>39886</v>
       </c>
+      <c r="B367" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E367" s="8">
         <v>0</v>
       </c>
@@ -6183,6 +7313,9 @@
       <c r="A368" s="1">
         <v>39887</v>
       </c>
+      <c r="B368" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E368" s="8">
         <v>0</v>
       </c>
@@ -6194,6 +7327,9 @@
     <row r="369" spans="1:11" ht="15.75">
       <c r="A369" s="1">
         <v>39888</v>
+      </c>
+      <c r="B369" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E369" s="8">
         <v>0</v>
@@ -6214,6 +7350,9 @@
       <c r="A370" s="1">
         <v>39889</v>
       </c>
+      <c r="B370" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E370" s="8">
         <v>0</v>
       </c>
@@ -6226,6 +7365,9 @@
       <c r="A371" s="1">
         <v>39890</v>
       </c>
+      <c r="B371" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E371" s="8">
         <v>8.89</v>
       </c>
@@ -6236,6 +7378,9 @@
       <c r="A372" s="1">
         <v>39891</v>
       </c>
+      <c r="B372" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E372" s="8">
         <v>0</v>
       </c>
@@ -6246,6 +7391,9 @@
       <c r="A373" s="1">
         <v>39892</v>
       </c>
+      <c r="B373" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E373" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -6256,6 +7404,9 @@
       <c r="A374" s="1">
         <v>39893</v>
       </c>
+      <c r="B374" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E374" s="8">
         <v>0.254</v>
       </c>
@@ -6266,6 +7417,9 @@
       <c r="A375" s="1">
         <v>39894</v>
       </c>
+      <c r="B375" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E375" s="8">
         <v>0</v>
       </c>
@@ -6276,6 +7430,9 @@
       <c r="A376" s="1">
         <v>39895</v>
       </c>
+      <c r="B376" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E376" s="8">
         <v>3.048</v>
       </c>
@@ -6286,6 +7443,9 @@
       <c r="A377" s="1">
         <v>39896</v>
       </c>
+      <c r="B377" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E377" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -6298,6 +7458,9 @@
       <c r="A378" s="1">
         <v>39897</v>
       </c>
+      <c r="B378" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E378" s="8">
         <v>0</v>
       </c>
@@ -6312,6 +7475,9 @@
       <c r="A379" s="1">
         <v>39898</v>
       </c>
+      <c r="B379" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E379" s="8">
         <v>0</v>
       </c>
@@ -6326,6 +7492,9 @@
       <c r="A380" s="1">
         <v>39899</v>
       </c>
+      <c r="B380" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E380" s="8">
         <v>0</v>
       </c>
@@ -6340,6 +7509,9 @@
       <c r="A381" s="1">
         <v>39900</v>
       </c>
+      <c r="B381" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E381" s="8">
         <v>0</v>
       </c>
@@ -6354,6 +7526,9 @@
       <c r="A382" s="1">
         <v>39901</v>
       </c>
+      <c r="B382" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E382" s="8">
         <v>0</v>
       </c>
@@ -6368,6 +7543,9 @@
       <c r="A383" s="1">
         <v>39902</v>
       </c>
+      <c r="B383" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E383" s="8">
         <v>7.8739999999999997</v>
       </c>
@@ -6382,6 +7560,9 @@
       <c r="A384" s="1">
         <v>39903</v>
       </c>
+      <c r="B384" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E384" s="8">
         <v>0.254</v>
       </c>
@@ -6396,6 +7577,9 @@
       <c r="A385" s="1">
         <v>39904</v>
       </c>
+      <c r="B385" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E385" s="8">
         <v>0</v>
       </c>
@@ -6410,6 +7594,9 @@
       <c r="A386" s="1">
         <v>39905</v>
       </c>
+      <c r="B386" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E386" s="8">
         <v>0</v>
       </c>
@@ -6424,6 +7611,9 @@
       <c r="A387" s="1">
         <v>39906</v>
       </c>
+      <c r="B387" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E387" s="8">
         <v>0</v>
       </c>
@@ -6438,6 +7628,9 @@
       <c r="A388" s="1">
         <v>39907</v>
       </c>
+      <c r="B388" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E388" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -6452,6 +7645,9 @@
       <c r="A389" s="1">
         <v>39908</v>
       </c>
+      <c r="B389" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E389" s="8">
         <v>0</v>
       </c>
@@ -6466,6 +7662,9 @@
       <c r="A390" s="1">
         <v>39909</v>
       </c>
+      <c r="B390" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E390" s="8">
         <v>0</v>
       </c>
@@ -6480,6 +7679,9 @@
       <c r="A391" s="1">
         <v>39910</v>
       </c>
+      <c r="B391" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E391" s="8">
         <v>1.016</v>
       </c>
@@ -6494,6 +7696,9 @@
       <c r="A392" s="1">
         <v>39911</v>
       </c>
+      <c r="B392" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E392" s="8">
         <v>0</v>
       </c>
@@ -6504,6 +7709,9 @@
       <c r="A393" s="1">
         <v>39912</v>
       </c>
+      <c r="B393" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E393" s="8">
         <v>0</v>
       </c>
@@ -6518,6 +7726,9 @@
       <c r="A394" s="1">
         <v>39913</v>
       </c>
+      <c r="B394" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E394" s="8">
         <v>0</v>
       </c>
@@ -6532,6 +7743,9 @@
       <c r="A395" s="1">
         <v>39914</v>
       </c>
+      <c r="B395" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E395" s="8">
         <v>0</v>
       </c>
@@ -6546,6 +7760,9 @@
       <c r="A396" s="1">
         <v>39915</v>
       </c>
+      <c r="B396" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E396" s="8">
         <v>0</v>
       </c>
@@ -6560,6 +7777,9 @@
       <c r="A397" s="1">
         <v>39916</v>
       </c>
+      <c r="B397" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E397" s="8">
         <v>0</v>
       </c>
@@ -6574,6 +7794,9 @@
       <c r="A398" s="1">
         <v>39917</v>
       </c>
+      <c r="B398" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E398" s="8">
         <v>0</v>
       </c>
@@ -6588,6 +7811,9 @@
       <c r="A399" s="1">
         <v>39918</v>
       </c>
+      <c r="B399" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E399" s="8">
         <v>10.41</v>
       </c>
@@ -6611,6 +7837,9 @@
       <c r="A400" s="1">
         <v>39919</v>
       </c>
+      <c r="B400" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E400" s="8">
         <v>0</v>
       </c>
@@ -6621,10 +7850,13 @@
         <v>23.866666666666671</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15.75">
+    <row r="401" spans="1:14" ht="15.75">
       <c r="A401" s="1">
         <v>39920</v>
       </c>
+      <c r="B401" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E401" s="8">
         <v>0</v>
       </c>
@@ -6635,10 +7867,13 @@
         <v>23.429895833333322</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15.75">
+    <row r="402" spans="1:14" ht="15.75">
       <c r="A402" s="1">
         <v>39921</v>
       </c>
+      <c r="B402" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E402" s="8">
         <v>0</v>
       </c>
@@ -6649,10 +7884,13 @@
         <v>23.084687499999987</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15.75">
+    <row r="403" spans="1:14" ht="15.75">
       <c r="A403" s="1">
         <v>39922</v>
       </c>
+      <c r="B403" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E403" s="8">
         <v>0</v>
       </c>
@@ -6663,10 +7901,13 @@
         <v>23.34760416666666</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15.75">
+    <row r="404" spans="1:14" ht="15.75">
       <c r="A404" s="1">
         <v>39923</v>
       </c>
+      <c r="B404" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E404" s="8">
         <v>0</v>
       </c>
@@ -6677,10 +7918,13 @@
         <v>23.416458333333313</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15.75">
+    <row r="405" spans="1:14" ht="15.75">
       <c r="A405" s="1">
         <v>39924</v>
       </c>
+      <c r="B405" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E405" s="8">
         <v>0</v>
       </c>
@@ -6691,10 +7935,13 @@
         <v>23.677812500000012</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15.75">
+    <row r="406" spans="1:14" ht="15.75">
       <c r="A406" s="1">
         <v>39925</v>
       </c>
+      <c r="B406" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E406" s="8">
         <v>0</v>
       </c>
@@ -6705,10 +7952,13 @@
         <v>23.888645833333324</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15.75">
+    <row r="407" spans="1:14" ht="15.75">
       <c r="A407" s="1">
         <v>39926</v>
       </c>
+      <c r="B407" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E407" s="8">
         <v>0</v>
       </c>
@@ -6719,10 +7969,13 @@
         <v>25.003958333333344</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15.75">
+    <row r="408" spans="1:14" ht="15.75">
       <c r="A408" s="1">
         <v>39927</v>
       </c>
+      <c r="B408" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E408" s="8">
         <v>0</v>
       </c>
@@ -6733,10 +7986,13 @@
         <v>25.074999999999992</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15.75">
+    <row r="409" spans="1:14" ht="15.75">
       <c r="A409" s="1">
         <v>39928</v>
       </c>
+      <c r="B409" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E409" s="8">
         <v>0</v>
       </c>
@@ -6747,10 +8003,13 @@
         <v>24.673020833333343</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15.75">
+    <row r="410" spans="1:14" ht="15.75">
       <c r="A410" s="1">
         <v>39929</v>
       </c>
+      <c r="B410" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E410" s="8">
         <v>0</v>
       </c>
@@ -6761,10 +8020,13 @@
         <v>24.490416666666672</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15.75">
+    <row r="411" spans="1:14" ht="15.75">
       <c r="A411" s="1">
         <v>39930</v>
       </c>
+      <c r="B411" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E411" s="8">
         <v>0</v>
       </c>
@@ -6775,10 +8037,13 @@
         <v>24.45239583333333</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15.75">
+    <row r="412" spans="1:14" ht="15.75">
       <c r="A412" s="1">
         <v>39931</v>
       </c>
+      <c r="B412" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E412" s="8">
         <v>0</v>
       </c>
@@ -6789,10 +8054,13 @@
         <v>24.532187500000006</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15.75">
+    <row r="413" spans="1:14" ht="15.75">
       <c r="A413" s="1">
         <v>39932</v>
       </c>
+      <c r="B413" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E413" s="8">
         <v>0</v>
       </c>
@@ -6803,10 +8071,13 @@
         <v>24.578437500000007</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15.75">
+    <row r="414" spans="1:14" ht="15.75">
       <c r="A414" s="1">
         <v>39933</v>
       </c>
+      <c r="B414" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E414" s="8">
         <v>0</v>
       </c>
@@ -6817,10 +8088,13 @@
         <v>24.771562499999987</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15.75">
+    <row r="415" spans="1:14" ht="15.75">
       <c r="A415" s="1">
         <v>39934</v>
       </c>
+      <c r="B415" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E415" s="8">
         <v>0</v>
       </c>
@@ -6830,10 +8104,14 @@
       <c r="G415" s="3">
         <v>25.385104166666668</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" ht="15.75">
+      <c r="N415" s="14"/>
+    </row>
+    <row r="416" spans="1:14" ht="15.75">
       <c r="A416" s="1">
         <v>39935</v>
+      </c>
+      <c r="B416" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E416" s="8">
         <v>0</v>
@@ -6849,6 +8127,9 @@
       <c r="A417" s="1">
         <v>39936</v>
       </c>
+      <c r="B417" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E417" s="8">
         <v>0</v>
       </c>
@@ -6863,6 +8144,9 @@
       <c r="A418" s="1">
         <v>39937</v>
       </c>
+      <c r="B418" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E418" s="8">
         <v>0</v>
       </c>
@@ -6877,6 +8161,9 @@
       <c r="A419" s="1">
         <v>39938</v>
       </c>
+      <c r="B419" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E419" s="8">
         <v>0.254</v>
       </c>
@@ -6891,6 +8178,9 @@
       <c r="A420" s="1">
         <v>39939</v>
       </c>
+      <c r="B420" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E420" s="8">
         <v>0</v>
       </c>
@@ -6905,6 +8195,9 @@
       <c r="A421" s="1">
         <v>39940</v>
       </c>
+      <c r="B421" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E421" s="8">
         <v>1.27</v>
       </c>
@@ -6919,6 +8212,9 @@
       <c r="A422" s="1">
         <v>39941</v>
       </c>
+      <c r="B422" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E422" s="8">
         <v>0</v>
       </c>
@@ -6933,6 +8229,9 @@
       <c r="A423" s="1">
         <v>39942</v>
       </c>
+      <c r="B423" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E423" s="8">
         <v>0</v>
       </c>
@@ -6947,6 +8246,9 @@
       <c r="A424" s="1">
         <v>39943</v>
       </c>
+      <c r="B424" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E424" s="8">
         <v>0</v>
       </c>
@@ -6961,6 +8263,9 @@
       <c r="A425" s="1">
         <v>39944</v>
       </c>
+      <c r="B425" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E425" s="8">
         <v>0</v>
       </c>
@@ -6975,6 +8280,9 @@
       <c r="A426" s="1">
         <v>39945</v>
       </c>
+      <c r="B426" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E426" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -6989,6 +8297,9 @@
       <c r="A427" s="1">
         <v>39946</v>
       </c>
+      <c r="B427" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E427" s="8">
         <v>9.65</v>
       </c>
@@ -7003,6 +8314,9 @@
       <c r="A428" s="1">
         <v>39947</v>
       </c>
+      <c r="B428" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E428" s="8">
         <v>0</v>
       </c>
@@ -7017,6 +8331,9 @@
       </c>
       <c r="I428" s="10">
         <v>2.9333333333333331</v>
+      </c>
+      <c r="J428" s="13">
+        <v>6.516</v>
       </c>
       <c r="K428" s="10">
         <v>2.0171664000000002</v>
@@ -7026,6 +8343,9 @@
       <c r="A429" s="1">
         <v>39948</v>
       </c>
+      <c r="B429" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E429" s="8">
         <v>0</v>
       </c>
@@ -7038,6 +8358,9 @@
       <c r="A430" s="1">
         <v>39949</v>
       </c>
+      <c r="B430" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E430" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -7052,6 +8375,9 @@
       <c r="A431" s="1">
         <v>39950</v>
       </c>
+      <c r="B431" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E431" s="8">
         <v>0</v>
       </c>
@@ -7066,6 +8392,9 @@
       <c r="A432" s="1">
         <v>39951</v>
       </c>
+      <c r="B432" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E432" s="8">
         <v>1.524</v>
       </c>
@@ -7080,6 +8409,9 @@
       <c r="A433" s="1">
         <v>39952</v>
       </c>
+      <c r="B433" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E433" s="8">
         <v>31.24</v>
       </c>
@@ -7094,6 +8426,9 @@
       <c r="A434" s="1">
         <v>39953</v>
       </c>
+      <c r="B434" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E434" s="8">
         <v>1.27</v>
       </c>
@@ -7108,6 +8443,9 @@
       <c r="A435" s="1">
         <v>39954</v>
       </c>
+      <c r="B435" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E435" s="8">
         <v>4.0640000000000001</v>
       </c>
@@ -7122,6 +8460,9 @@
       <c r="A436" s="1">
         <v>39955</v>
       </c>
+      <c r="B436" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E436" s="8">
         <v>2.286</v>
       </c>
@@ -7136,6 +8477,9 @@
       <c r="A437" s="1">
         <v>39956</v>
       </c>
+      <c r="B437" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E437" s="8">
         <v>19.809999999999999</v>
       </c>
@@ -7150,6 +8494,9 @@
       <c r="A438" s="1">
         <v>39957</v>
       </c>
+      <c r="B438" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E438" s="8">
         <v>0</v>
       </c>
@@ -7164,6 +8511,9 @@
       <c r="A439" s="1">
         <v>39958</v>
       </c>
+      <c r="B439" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E439" s="8">
         <v>11.94</v>
       </c>
@@ -7178,6 +8528,9 @@
       <c r="A440" s="1">
         <v>39959</v>
       </c>
+      <c r="B440" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E440" s="8">
         <v>7.62</v>
       </c>
@@ -7192,6 +8545,9 @@
       <c r="A441" s="1">
         <v>39960</v>
       </c>
+      <c r="B441" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E441" s="8">
         <v>27.69</v>
       </c>
@@ -7206,6 +8562,9 @@
       <c r="A442" s="1">
         <v>39961</v>
       </c>
+      <c r="B442" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E442" s="8">
         <v>8.89</v>
       </c>
@@ -7220,6 +8579,9 @@
       <c r="A443" s="1">
         <v>39962</v>
       </c>
+      <c r="B443" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E443" s="8">
         <v>2.286</v>
       </c>
@@ -7234,6 +8596,9 @@
       <c r="A444" s="1">
         <v>39963</v>
       </c>
+      <c r="B444" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E444" s="8">
         <v>5.5880000000000001</v>
       </c>
@@ -7248,6 +8613,9 @@
       <c r="A445" s="1">
         <v>39964</v>
       </c>
+      <c r="B445" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E445" s="8">
         <v>0</v>
       </c>
@@ -7262,6 +8630,9 @@
       <c r="A446" s="1">
         <v>39965</v>
       </c>
+      <c r="B446" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E446" s="8">
         <v>0</v>
       </c>
@@ -7276,6 +8647,9 @@
       <c r="A447" s="1">
         <v>39966</v>
       </c>
+      <c r="B447" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E447" s="8">
         <v>17.53</v>
       </c>
@@ -7290,6 +8664,9 @@
       <c r="A448" s="1">
         <v>39967</v>
       </c>
+      <c r="B448" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E448" s="8">
         <v>2.286</v>
       </c>
@@ -7300,9 +8677,12 @@
         <v>28.112812500000018</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="15.75">
+    <row r="449" spans="1:14" ht="15.75">
       <c r="A449" s="1">
         <v>39968</v>
+      </c>
+      <c r="B449" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E449" s="8">
         <v>5.5880000000000001</v>
@@ -7311,11 +8691,15 @@
       <c r="G449" s="3">
         <v>28.441250000000007</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" ht="15.75">
+      <c r="N449" s="14"/>
+    </row>
+    <row r="450" spans="1:14" ht="15.75">
       <c r="A450" s="1">
         <v>39969</v>
       </c>
+      <c r="B450" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E450" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -7326,10 +8710,13 @@
         <v>28.406979166666662</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="15.75">
+    <row r="451" spans="1:14" ht="15.75">
       <c r="A451" s="1">
         <v>39970</v>
       </c>
+      <c r="B451" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E451" s="8">
         <v>7.3659999999999997</v>
       </c>
@@ -7340,10 +8727,13 @@
         <v>28.137395833333333</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="15.75">
+    <row r="452" spans="1:14" ht="15.75">
       <c r="A452" s="1">
         <v>39971</v>
       </c>
+      <c r="B452" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E452" s="8">
         <v>0</v>
       </c>
@@ -7354,10 +8744,13 @@
         <v>27.904583333333306</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="15.75">
+    <row r="453" spans="1:14" ht="15.75">
       <c r="A453" s="1">
         <v>39972</v>
       </c>
+      <c r="B453" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E453" s="8">
         <v>11.68</v>
       </c>
@@ -7368,10 +8761,13 @@
         <v>28.020937500000006</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="15.75">
+    <row r="454" spans="1:14" ht="15.75">
       <c r="A454" s="1">
         <v>39973</v>
       </c>
+      <c r="B454" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E454" s="8">
         <v>5.5880000000000001</v>
       </c>
@@ -7382,10 +8778,13 @@
         <v>28.716041666666666</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="15.75">
+    <row r="455" spans="1:14" ht="15.75">
       <c r="A455" s="1">
         <v>39974</v>
       </c>
+      <c r="B455" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E455" s="8">
         <v>0</v>
       </c>
@@ -7396,10 +8795,13 @@
         <v>29.748541666666657</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="15.75">
+    <row r="456" spans="1:14" ht="15.75">
       <c r="A456" s="1">
         <v>39975</v>
       </c>
+      <c r="B456" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E456" s="8">
         <v>0</v>
       </c>
@@ -7410,10 +8812,13 @@
         <v>29.993958333333339</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="15.75">
+    <row r="457" spans="1:14" ht="15.75">
       <c r="A457" s="1">
         <v>39976</v>
       </c>
+      <c r="B457" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E457" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -7424,10 +8829,13 @@
         <v>30.131875000000004</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="15.75">
+    <row r="458" spans="1:14" ht="15.75">
       <c r="A458" s="1">
         <v>39977</v>
       </c>
+      <c r="B458" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E458" s="8">
         <v>0.254</v>
       </c>
@@ -7438,9 +8846,12 @@
         <v>30.355208333333334</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="15.75">
+    <row r="459" spans="1:14" ht="15.75">
       <c r="A459" s="1">
         <v>39978</v>
+      </c>
+      <c r="B459" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E459" s="8">
         <v>0</v>
@@ -7450,10 +8861,13 @@
         <v>30.531354166666663</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="15.75">
+    <row r="460" spans="1:14" ht="15.75">
       <c r="A460" s="1">
         <v>39979</v>
       </c>
+      <c r="B460" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E460" s="8">
         <v>0</v>
       </c>
@@ -7469,14 +8883,20 @@
       <c r="I460" s="10">
         <v>3</v>
       </c>
+      <c r="J460" s="13">
+        <v>10.44</v>
+      </c>
       <c r="K460" s="10">
         <v>1.9156680000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="15.75">
+    <row r="461" spans="1:14" ht="15.75">
       <c r="A461" s="1">
         <v>39980</v>
       </c>
+      <c r="B461" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E461" s="8">
         <v>2.794</v>
       </c>
@@ -7487,10 +8907,13 @@
         <v>31.058333333333341</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="15.75">
+    <row r="462" spans="1:14" ht="15.75">
       <c r="A462" s="1">
         <v>39981</v>
       </c>
+      <c r="B462" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E462" s="8">
         <v>6.8579999999999997</v>
       </c>
@@ -7501,9 +8924,12 @@
         <v>30.704166666666652</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="15.75">
+    <row r="463" spans="1:14" ht="15.75">
       <c r="A463" s="1">
         <v>39982</v>
+      </c>
+      <c r="B463" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E463" s="8">
         <v>6.8579999999999997</v>
@@ -7513,9 +8939,12 @@
         <v>31.034895833333319</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="15.75">
+    <row r="464" spans="1:14" ht="15.75">
       <c r="A464" s="1">
         <v>39983</v>
+      </c>
+      <c r="B464" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E464" s="8">
         <v>1.27</v>
@@ -7531,6 +8960,9 @@
       <c r="A465" s="1">
         <v>39984</v>
       </c>
+      <c r="B465" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E465" s="8">
         <v>0.254</v>
       </c>
@@ -7545,6 +8977,9 @@
       <c r="A466" s="1">
         <v>39985</v>
       </c>
+      <c r="B466" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E466" s="8">
         <v>0</v>
       </c>
@@ -7559,6 +8994,9 @@
       <c r="A467" s="1">
         <v>39986</v>
       </c>
+      <c r="B467" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E467" s="8">
         <v>0</v>
       </c>
@@ -7573,6 +9011,9 @@
       <c r="A468" s="1">
         <v>39987</v>
       </c>
+      <c r="B468" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E468" s="8">
         <v>12.45</v>
       </c>
@@ -7587,6 +9028,9 @@
       <c r="A469" s="1">
         <v>39988</v>
       </c>
+      <c r="B469" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E469" s="8">
         <v>14.73</v>
       </c>
@@ -7601,6 +9045,9 @@
       <c r="A470" s="1">
         <v>39989</v>
       </c>
+      <c r="B470" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E470" s="8">
         <v>0</v>
       </c>
@@ -7615,6 +9062,9 @@
       <c r="A471" s="1">
         <v>39990</v>
       </c>
+      <c r="B471" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E471" s="8">
         <v>31.5</v>
       </c>
@@ -7629,6 +9079,9 @@
       <c r="A472" s="1">
         <v>39991</v>
       </c>
+      <c r="B472" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E472" s="8">
         <v>9.91</v>
       </c>
@@ -7643,6 +9096,9 @@
       <c r="A473" s="1">
         <v>39992</v>
       </c>
+      <c r="B473" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E473" s="8">
         <v>0.254</v>
       </c>
@@ -7657,6 +9113,9 @@
       <c r="A474" s="1">
         <v>39993</v>
       </c>
+      <c r="B474" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E474" s="8">
         <v>1.27</v>
       </c>
@@ -7671,6 +9130,9 @@
       <c r="A475" s="1">
         <v>39994</v>
       </c>
+      <c r="B475" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E475" s="8">
         <v>14.22</v>
       </c>
@@ -7685,6 +9147,9 @@
       <c r="A476" s="1">
         <v>39995</v>
       </c>
+      <c r="B476" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E476" s="8">
         <v>16.760000000000002</v>
       </c>
@@ -7699,6 +9164,9 @@
       <c r="A477" s="1">
         <v>39996</v>
       </c>
+      <c r="B477" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E477" s="8">
         <v>34.04</v>
       </c>
@@ -7713,6 +9181,9 @@
       <c r="A478" s="1">
         <v>39997</v>
       </c>
+      <c r="B478" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E478" s="8">
         <v>41.91</v>
       </c>
@@ -7727,6 +9198,9 @@
       <c r="A479" s="1">
         <v>39998</v>
       </c>
+      <c r="B479" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E479" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -7741,6 +9215,9 @@
       <c r="A480" s="1">
         <v>39999</v>
       </c>
+      <c r="B480" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E480" s="8">
         <v>0.254</v>
       </c>
@@ -7755,6 +9232,9 @@
       <c r="A481" s="1">
         <v>40000</v>
       </c>
+      <c r="B481" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E481" s="8">
         <v>0</v>
       </c>
@@ -7769,6 +9249,9 @@
       <c r="A482" s="1">
         <v>40001</v>
       </c>
+      <c r="B482" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E482" s="8">
         <v>0</v>
       </c>
@@ -7783,6 +9266,9 @@
       <c r="A483" s="1">
         <v>40002</v>
       </c>
+      <c r="B483" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E483" s="8">
         <v>0</v>
       </c>
@@ -7797,6 +9283,9 @@
       <c r="A484" s="1">
         <v>40003</v>
       </c>
+      <c r="B484" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E484" s="8">
         <v>0</v>
       </c>
@@ -7811,6 +9300,9 @@
       <c r="A485" s="1">
         <v>40004</v>
       </c>
+      <c r="B485" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E485" s="8">
         <v>4.3179999999999996</v>
       </c>
@@ -7825,6 +9317,9 @@
       <c r="A486" s="1">
         <v>40005</v>
       </c>
+      <c r="B486" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E486" s="8">
         <v>2.54</v>
       </c>
@@ -7839,6 +9334,9 @@
       <c r="A487" s="1">
         <v>40006</v>
       </c>
+      <c r="B487" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E487" s="8">
         <v>7.8739999999999997</v>
       </c>
@@ -7853,6 +9351,9 @@
       <c r="A488" s="1">
         <v>40007</v>
       </c>
+      <c r="B488" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E488" s="8">
         <v>0</v>
       </c>
@@ -7867,6 +9368,9 @@
       <c r="A489" s="1">
         <v>40008</v>
       </c>
+      <c r="B489" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E489" s="8">
         <v>0</v>
       </c>
@@ -7881,6 +9385,9 @@
       <c r="A490" s="1">
         <v>40009</v>
       </c>
+      <c r="B490" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E490" s="8">
         <v>0</v>
       </c>
@@ -7895,6 +9402,9 @@
       </c>
       <c r="I490" s="10">
         <v>1.6666666666666667</v>
+      </c>
+      <c r="J490" s="13">
+        <v>16.100000000000001</v>
       </c>
       <c r="K490" s="10">
         <v>1.5445740000000001</v>
@@ -7904,6 +9414,9 @@
       <c r="A491" s="1">
         <v>40010</v>
       </c>
+      <c r="B491" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E491" s="8">
         <v>0</v>
       </c>
@@ -7918,6 +9431,9 @@
       <c r="A492" s="1">
         <v>40011</v>
       </c>
+      <c r="B492" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E492" s="8">
         <v>0</v>
       </c>
@@ -7930,6 +9446,9 @@
       <c r="A493" s="1">
         <v>40012</v>
       </c>
+      <c r="B493" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E493" s="8">
         <v>0</v>
       </c>
@@ -7944,6 +9463,9 @@
       <c r="A494" s="1">
         <v>40013</v>
       </c>
+      <c r="B494" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E494" s="8">
         <v>0</v>
       </c>
@@ -7958,6 +9480,9 @@
       <c r="A495" s="1">
         <v>40014</v>
       </c>
+      <c r="B495" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E495" s="8">
         <v>3.556</v>
       </c>
@@ -7972,6 +9497,9 @@
       <c r="A496" s="1">
         <v>40015</v>
       </c>
+      <c r="B496" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E496" s="8">
         <v>3.302</v>
       </c>
@@ -7982,10 +9510,13 @@
         <v>30.300104166666667</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15.75">
+    <row r="497" spans="1:14" ht="15.75">
       <c r="A497" s="1">
         <v>40016</v>
       </c>
+      <c r="B497" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E497" s="8">
         <v>0</v>
       </c>
@@ -7996,10 +9527,13 @@
         <v>30.520625000000006</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15.75">
+    <row r="498" spans="1:14" ht="15.75">
       <c r="A498" s="1">
         <v>40017</v>
       </c>
+      <c r="B498" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E498" s="8">
         <v>0</v>
       </c>
@@ -8010,10 +9544,13 @@
         <v>31.165937499999998</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15.75">
+    <row r="499" spans="1:14" ht="15.75">
       <c r="A499" s="1">
         <v>40018</v>
       </c>
+      <c r="B499" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E499" s="8">
         <v>0</v>
       </c>
@@ -8024,10 +9561,13 @@
         <v>31.348958333333329</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15.75">
+    <row r="500" spans="1:14" ht="15.75">
       <c r="A500" s="1">
         <v>40019</v>
       </c>
+      <c r="B500" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E500" s="8">
         <v>0</v>
       </c>
@@ -8038,10 +9578,13 @@
         <v>30.87895833333333</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15.75">
+    <row r="501" spans="1:14" ht="15.75">
       <c r="A501" s="1">
         <v>40020</v>
       </c>
+      <c r="B501" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E501" s="8">
         <v>0</v>
       </c>
@@ -8052,10 +9595,13 @@
         <v>30.546041666666664</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15.75">
+    <row r="502" spans="1:14" ht="15.75">
       <c r="A502" s="1">
         <v>40021</v>
       </c>
+      <c r="B502" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E502" s="8">
         <v>74.17</v>
       </c>
@@ -8065,11 +9611,15 @@
       <c r="G502" s="3">
         <v>30.279479166666672</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" ht="15.75">
+      <c r="N502" s="14"/>
+    </row>
+    <row r="503" spans="1:14" ht="15.75">
       <c r="A503" s="1">
         <v>40022</v>
       </c>
+      <c r="B503" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E503" s="8">
         <v>1.016</v>
       </c>
@@ -8080,10 +9630,13 @@
         <v>30.42302083333335</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15.75">
+    <row r="504" spans="1:14" ht="15.75">
       <c r="A504" s="1">
         <v>40023</v>
       </c>
+      <c r="B504" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E504" s="8">
         <v>0.254</v>
       </c>
@@ -8094,10 +9647,13 @@
         <v>30.311562499999997</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15.75">
+    <row r="505" spans="1:14" ht="15.75">
       <c r="A505" s="1">
         <v>40024</v>
       </c>
+      <c r="B505" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E505" s="8">
         <v>19.809999999999999</v>
       </c>
@@ -8108,10 +9664,13 @@
         <v>30.078229166666663</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15.75">
+    <row r="506" spans="1:14" ht="15.75">
       <c r="A506" s="1">
         <v>40025</v>
       </c>
+      <c r="B506" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E506" s="8">
         <v>0</v>
       </c>
@@ -8122,10 +9681,13 @@
         <v>29.823541666666671</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15.75">
+    <row r="507" spans="1:14" ht="15.75">
       <c r="A507" s="1">
         <v>40026</v>
       </c>
+      <c r="B507" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E507" s="8">
         <v>5.8419999999999996</v>
       </c>
@@ -8136,10 +9698,13 @@
         <v>30.215937499999995</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15.75">
+    <row r="508" spans="1:14" ht="15.75">
       <c r="A508" s="1">
         <v>40027</v>
       </c>
+      <c r="B508" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E508" s="8">
         <v>0.254</v>
       </c>
@@ -8150,10 +9715,13 @@
         <v>30.400624999999991</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15.75">
+    <row r="509" spans="1:14" ht="15.75">
       <c r="A509" s="1">
         <v>40028</v>
       </c>
+      <c r="B509" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E509" s="8">
         <v>16.510000000000002</v>
       </c>
@@ -8164,10 +9732,13 @@
         <v>30.982083333333318</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15.75">
+    <row r="510" spans="1:14" ht="15.75">
       <c r="A510" s="1">
         <v>40029</v>
       </c>
+      <c r="B510" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E510" s="8">
         <v>9.65</v>
       </c>
@@ -8178,10 +9749,13 @@
         <v>30.960312500000011</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15.75">
+    <row r="511" spans="1:14" ht="15.75">
       <c r="A511" s="1">
         <v>40030</v>
       </c>
+      <c r="B511" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E511" s="8">
         <v>2.286</v>
       </c>
@@ -8192,10 +9766,13 @@
         <v>31.460625000000004</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15.75">
+    <row r="512" spans="1:14" ht="15.75">
       <c r="A512" s="1">
         <v>40031</v>
       </c>
+      <c r="B512" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E512" s="8">
         <v>0.254</v>
       </c>
@@ -8206,10 +9783,13 @@
         <v>30.943020833333321</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="15.75">
+    <row r="513" spans="1:14" ht="15.75">
       <c r="A513" s="1">
         <v>40032</v>
       </c>
+      <c r="B513" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E513" s="8">
         <v>2.032</v>
       </c>
@@ -8220,10 +9800,13 @@
         <v>30.517187500000016</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="15.75">
+    <row r="514" spans="1:14" ht="15.75">
       <c r="A514" s="1">
         <v>40033</v>
       </c>
+      <c r="B514" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E514" s="8">
         <v>3.556</v>
       </c>
@@ -8234,10 +9817,13 @@
         <v>30.747291666666655</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="15.75">
+    <row r="515" spans="1:14" ht="15.75">
       <c r="A515" s="1">
         <v>40034</v>
       </c>
+      <c r="B515" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E515" s="8">
         <v>0.254</v>
       </c>
@@ -8248,10 +9834,13 @@
         <v>31.05239583333335</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="15.75">
+    <row r="516" spans="1:14" ht="15.75">
       <c r="A516" s="1">
         <v>40035</v>
       </c>
+      <c r="B516" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E516" s="8">
         <v>0</v>
       </c>
@@ -8262,10 +9851,13 @@
         <v>31.102708333333322</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="15.75">
+    <row r="517" spans="1:14" ht="15.75">
       <c r="A517" s="1">
         <v>40036</v>
       </c>
+      <c r="B517" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E517" s="8">
         <v>0</v>
       </c>
@@ -8276,10 +9868,13 @@
         <v>31.50020833333333</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="15.75">
+    <row r="518" spans="1:14" ht="15.75">
       <c r="A518" s="1">
         <v>40037</v>
       </c>
+      <c r="B518" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E518" s="8">
         <v>0</v>
       </c>
@@ -8290,10 +9885,13 @@
         <v>31.22156249999999</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="15.75">
+    <row r="519" spans="1:14" ht="15.75">
       <c r="A519" s="1">
         <v>40038</v>
       </c>
+      <c r="B519" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E519" s="8">
         <v>0.254</v>
       </c>
@@ -8303,11 +9901,15 @@
       <c r="G519" s="3">
         <v>30.674583333333349</v>
       </c>
-    </row>
-    <row r="520" spans="1:11" ht="15.75">
+      <c r="N519" s="14"/>
+    </row>
+    <row r="520" spans="1:14" ht="15.75">
       <c r="A520" s="1">
         <v>40039</v>
       </c>
+      <c r="B520" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E520" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -8318,9 +9920,12 @@
         <v>30.71072916666667</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="15.75">
+    <row r="521" spans="1:14" ht="15.75">
       <c r="A521" s="1">
         <v>40040</v>
+      </c>
+      <c r="B521" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E521" s="8">
         <v>0.254</v>
@@ -8335,14 +9940,20 @@
       <c r="I521" s="10">
         <v>2</v>
       </c>
+      <c r="J521" s="13">
+        <v>15.44</v>
+      </c>
       <c r="K521" s="10">
         <v>1.9988783999999999</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="15.75">
+    <row r="522" spans="1:14" ht="15.75">
       <c r="A522" s="1">
         <v>40041</v>
       </c>
+      <c r="B522" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E522" s="8">
         <v>2.54</v>
       </c>
@@ -8353,10 +9964,13 @@
         <v>29.930729166666666</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="15.75">
+    <row r="523" spans="1:14" ht="15.75">
       <c r="A523" s="1">
         <v>40042</v>
       </c>
+      <c r="B523" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E523" s="8">
         <v>0</v>
       </c>
@@ -8367,10 +9981,13 @@
         <v>29.969062499999989</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="15.75">
+    <row r="524" spans="1:14" ht="15.75">
       <c r="A524" s="1">
         <v>40043</v>
       </c>
+      <c r="B524" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E524" s="8">
         <v>0</v>
       </c>
@@ -8381,10 +9998,13 @@
         <v>29.791145833333331</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="15.75">
+    <row r="525" spans="1:14" ht="15.75">
       <c r="A525" s="1">
         <v>40044</v>
       </c>
+      <c r="B525" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E525" s="8">
         <v>1.016</v>
       </c>
@@ -8395,10 +10015,13 @@
         <v>29.738020833333323</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="15.75">
+    <row r="526" spans="1:14" ht="15.75">
       <c r="A526" s="1">
         <v>40045</v>
       </c>
+      <c r="B526" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E526" s="8">
         <v>0.254</v>
       </c>
@@ -8409,10 +10032,13 @@
         <v>30.208437500000006</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="15.75">
+    <row r="527" spans="1:14" ht="15.75">
       <c r="A527" s="1">
         <v>40046</v>
       </c>
+      <c r="B527" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E527" s="8">
         <v>0</v>
       </c>
@@ -8423,9 +10049,12 @@
         <v>30.480104166666667</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="15.75">
+    <row r="528" spans="1:14" ht="15.75">
       <c r="A528" s="1">
         <v>40047</v>
+      </c>
+      <c r="B528" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E528" s="8">
         <v>0.76200000000000001</v>
@@ -8441,6 +10070,9 @@
       <c r="A529" s="1">
         <v>40048</v>
       </c>
+      <c r="B529" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E529" s="8">
         <v>0</v>
       </c>
@@ -8455,6 +10087,9 @@
       <c r="A530" s="1">
         <v>40049</v>
       </c>
+      <c r="B530" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E530" s="8">
         <v>0</v>
       </c>
@@ -8469,6 +10104,9 @@
       <c r="A531" s="1">
         <v>40050</v>
       </c>
+      <c r="B531" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E531" s="8">
         <v>7.62</v>
       </c>
@@ -8483,6 +10121,9 @@
       <c r="A532" s="1">
         <v>40051</v>
       </c>
+      <c r="B532" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E532" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -8497,6 +10138,9 @@
       <c r="A533" s="1">
         <v>40052</v>
       </c>
+      <c r="B533" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E533" s="8">
         <v>1.016</v>
       </c>
@@ -8511,6 +10155,9 @@
       <c r="A534" s="1">
         <v>40053</v>
       </c>
+      <c r="B534" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E534" s="8">
         <v>0</v>
       </c>
@@ -8525,6 +10172,9 @@
       <c r="A535" s="1">
         <v>40054</v>
       </c>
+      <c r="B535" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E535" s="8">
         <v>6.35</v>
       </c>
@@ -8539,6 +10189,9 @@
       <c r="A536" s="1">
         <v>40055</v>
       </c>
+      <c r="B536" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E536" s="8">
         <v>1.27</v>
       </c>
@@ -8553,6 +10206,9 @@
       <c r="A537" s="1">
         <v>40056</v>
       </c>
+      <c r="B537" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E537" s="8">
         <v>0</v>
       </c>
@@ -8567,6 +10223,9 @@
       <c r="A538" s="1">
         <v>40057</v>
       </c>
+      <c r="B538" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E538" s="8">
         <v>3.556</v>
       </c>
@@ -8581,6 +10240,9 @@
       <c r="A539" s="1">
         <v>40058</v>
       </c>
+      <c r="B539" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E539" s="8">
         <v>0</v>
       </c>
@@ -8595,6 +10257,9 @@
       <c r="A540" s="1">
         <v>40059</v>
       </c>
+      <c r="B540" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E540" s="8">
         <v>26.16</v>
       </c>
@@ -8609,6 +10274,9 @@
       <c r="A541" s="1">
         <v>40060</v>
       </c>
+      <c r="B541" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E541" s="8">
         <v>2.286</v>
       </c>
@@ -8623,6 +10291,9 @@
       <c r="A542" s="1">
         <v>40061</v>
       </c>
+      <c r="B542" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E542" s="8">
         <v>18.03</v>
       </c>
@@ -8635,6 +10306,9 @@
       <c r="A543" s="1">
         <v>40062</v>
       </c>
+      <c r="B543" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E543" s="8">
         <v>0</v>
       </c>
@@ -8649,6 +10323,9 @@
       <c r="A544" s="1">
         <v>40063</v>
       </c>
+      <c r="B544" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E544" s="8">
         <v>8.89</v>
       </c>
@@ -8659,10 +10336,13 @@
         <v>30.32822916666667</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="15.75">
+    <row r="545" spans="1:14" ht="15.75">
       <c r="A545" s="1">
         <v>40064</v>
       </c>
+      <c r="B545" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E545" s="8">
         <v>0</v>
       </c>
@@ -8673,9 +10353,12 @@
         <v>30.25354166666666</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="15.75">
+    <row r="546" spans="1:14" ht="15.75">
       <c r="A546" s="1">
         <v>40065</v>
+      </c>
+      <c r="B546" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E546" s="8">
         <v>2.032</v>
@@ -8685,10 +10368,13 @@
         <v>29.957812500000003</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="15.75">
+    <row r="547" spans="1:14" ht="15.75">
       <c r="A547" s="1">
         <v>40066</v>
       </c>
+      <c r="B547" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E547" s="8">
         <v>0</v>
       </c>
@@ -8699,10 +10385,13 @@
         <v>29.630625000000006</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="15.75">
+    <row r="548" spans="1:14" ht="15.75">
       <c r="A548" s="1">
         <v>40067</v>
       </c>
+      <c r="B548" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E548" s="8">
         <v>5.5880000000000001</v>
       </c>
@@ -8712,11 +10401,15 @@
       <c r="G548" s="3">
         <v>29.863333333333333</v>
       </c>
-    </row>
-    <row r="549" spans="1:11" ht="15.75">
+      <c r="N548" s="14"/>
+    </row>
+    <row r="549" spans="1:14" ht="15.75">
       <c r="A549" s="1">
         <v>40068</v>
       </c>
+      <c r="B549" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E549" s="8">
         <v>1.016</v>
       </c>
@@ -8727,10 +10420,13 @@
         <v>29.478750000000016</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="15.75">
+    <row r="550" spans="1:14" ht="15.75">
       <c r="A550" s="1">
         <v>40069</v>
       </c>
+      <c r="B550" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E550" s="8">
         <v>6.6040000000000001</v>
       </c>
@@ -8741,10 +10437,13 @@
         <v>29.135833333333327</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="15.75">
+    <row r="551" spans="1:14" ht="15.75">
       <c r="A551" s="1">
         <v>40070</v>
       </c>
+      <c r="B551" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E551" s="8">
         <v>23.11</v>
       </c>
@@ -8755,9 +10454,12 @@
         <v>29.509687499999984</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="15.75">
+    <row r="552" spans="1:14" ht="15.75">
       <c r="A552" s="1">
         <v>40071</v>
+      </c>
+      <c r="B552" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E552" s="8">
         <v>0.254</v>
@@ -8770,13 +10472,19 @@
         <v>7</v>
       </c>
       <c r="I552" s="10"/>
+      <c r="J552" s="13">
+        <v>15.25</v>
+      </c>
       <c r="K552" s="10">
         <v>1.8330672000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="15.75">
+    <row r="553" spans="1:14" ht="15.75">
       <c r="A553" s="1">
         <v>40072</v>
+      </c>
+      <c r="B553" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E553" s="8">
         <v>1.27</v>
@@ -8786,10 +10494,13 @@
         <v>30.248645833333345</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="15.75">
+    <row r="554" spans="1:14" ht="15.75">
       <c r="A554" s="1">
         <v>40073</v>
       </c>
+      <c r="B554" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E554" s="8">
         <v>0</v>
       </c>
@@ -8800,10 +10511,13 @@
         <v>30.248750000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="15.75">
+    <row r="555" spans="1:14" ht="15.75">
       <c r="A555" s="1">
         <v>40074</v>
       </c>
+      <c r="B555" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E555" s="8">
         <v>0</v>
       </c>
@@ -8814,10 +10528,13 @@
         <v>30.191875</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="15.75">
+    <row r="556" spans="1:14" ht="15.75">
       <c r="A556" s="1">
         <v>40075</v>
       </c>
+      <c r="B556" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E556" s="8">
         <v>0</v>
       </c>
@@ -8828,10 +10545,13 @@
         <v>30.085937500000014</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="15.75">
+    <row r="557" spans="1:14" ht="15.75">
       <c r="A557" s="1">
         <v>40076</v>
       </c>
+      <c r="B557" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E557" s="8">
         <v>8.3800000000000008</v>
       </c>
@@ -8842,10 +10562,13 @@
         <v>30.199895833333333</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="15.75">
+    <row r="558" spans="1:14" ht="15.75">
       <c r="A558" s="1">
         <v>40077</v>
       </c>
+      <c r="B558" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E558" s="8">
         <v>0</v>
       </c>
@@ -8856,10 +10579,13 @@
         <v>30.112500000000015</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="15.75">
+    <row r="559" spans="1:14" ht="15.75">
       <c r="A559" s="1">
         <v>40078</v>
       </c>
+      <c r="B559" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E559" s="8">
         <v>0.254</v>
       </c>
@@ -8870,10 +10596,13 @@
         <v>29.944999999999993</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="15.75">
+    <row r="560" spans="1:14" ht="15.75">
       <c r="A560" s="1">
         <v>40079</v>
       </c>
+      <c r="B560" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E560" s="8">
         <v>0</v>
       </c>
@@ -8884,10 +10613,13 @@
         <v>29.624270833333338</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15.75">
+    <row r="561" spans="1:14" ht="15.75">
       <c r="A561" s="1">
         <v>40080</v>
       </c>
+      <c r="B561" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E561" s="8">
         <v>1.27</v>
       </c>
@@ -8898,10 +10630,13 @@
         <v>29.681770833333335</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15.75">
+    <row r="562" spans="1:14" ht="15.75">
       <c r="A562" s="1">
         <v>40081</v>
       </c>
+      <c r="B562" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E562" s="8">
         <v>0</v>
       </c>
@@ -8912,10 +10647,13 @@
         <v>30.234791666666666</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15.75">
+    <row r="563" spans="1:14" ht="15.75">
       <c r="A563" s="1">
         <v>40082</v>
       </c>
+      <c r="B563" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E563" s="8">
         <v>0</v>
       </c>
@@ -8926,10 +10664,13 @@
         <v>30.532395833333336</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15.75">
+    <row r="564" spans="1:14" ht="15.75">
       <c r="A564" s="1">
         <v>40083</v>
       </c>
+      <c r="B564" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E564" s="8">
         <v>28.19</v>
       </c>
@@ -8940,10 +10681,13 @@
         <v>30.069895833333348</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15.75">
+    <row r="565" spans="1:14" ht="15.75">
       <c r="A565" s="1">
         <v>40084</v>
       </c>
+      <c r="B565" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E565" s="8">
         <v>3.556</v>
       </c>
@@ -8954,10 +10698,13 @@
         <v>30.088333333333342</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15.75">
+    <row r="566" spans="1:14" ht="15.75">
       <c r="A566" s="1">
         <v>40085</v>
       </c>
+      <c r="B566" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E566" s="8">
         <v>0</v>
       </c>
@@ -8968,10 +10715,13 @@
         <v>29.825625000000006</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15.75">
+    <row r="567" spans="1:14" ht="15.75">
       <c r="A567" s="1">
         <v>40086</v>
       </c>
+      <c r="B567" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E567" s="8">
         <v>0</v>
       </c>
@@ -8982,10 +10732,13 @@
         <v>29.393854166666674</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15.75">
+    <row r="568" spans="1:14" ht="15.75">
       <c r="A568" s="1">
         <v>40087</v>
       </c>
+      <c r="B568" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E568" s="8">
         <v>0</v>
       </c>
@@ -8996,10 +10749,13 @@
         <v>29.166145833333346</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15.75">
+    <row r="569" spans="1:14" ht="15.75">
       <c r="A569" s="1">
         <v>40088</v>
       </c>
+      <c r="B569" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E569" s="8">
         <v>0</v>
       </c>
@@ -9010,10 +10766,13 @@
         <v>28.928958333333302</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15.75">
+    <row r="570" spans="1:14" ht="15.75">
       <c r="A570" s="1">
         <v>40089</v>
       </c>
+      <c r="B570" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E570" s="8">
         <v>0</v>
       </c>
@@ -9024,10 +10783,13 @@
         <v>28.890416666666667</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="15.75">
+    <row r="571" spans="1:14" ht="15.75">
       <c r="A571" s="1">
         <v>40090</v>
       </c>
+      <c r="B571" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E571" s="8">
         <v>0</v>
       </c>
@@ -9038,10 +10800,13 @@
         <v>28.965104166666666</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="15.75">
+    <row r="572" spans="1:14" ht="15.75">
       <c r="A572" s="1">
         <v>40091</v>
       </c>
+      <c r="B572" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E572" s="8">
         <v>0</v>
       </c>
@@ -9052,10 +10817,13 @@
         <v>28.810729166666661</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="15.75">
+    <row r="573" spans="1:14" ht="15.75">
       <c r="A573" s="1">
         <v>40092</v>
       </c>
+      <c r="B573" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E573" s="8">
         <v>10.92</v>
       </c>
@@ -9066,10 +10834,13 @@
         <v>29.36656249999999</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="15.75">
+    <row r="574" spans="1:14" ht="15.75">
       <c r="A574" s="1">
         <v>40093</v>
       </c>
+      <c r="B574" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E574" s="8">
         <v>0</v>
       </c>
@@ -9080,10 +10851,13 @@
         <v>29.721770833333327</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="15.75">
+    <row r="575" spans="1:14" ht="15.75">
       <c r="A575" s="1">
         <v>40094</v>
       </c>
+      <c r="B575" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E575" s="8">
         <v>0</v>
       </c>
@@ -9094,10 +10868,13 @@
         <v>30.039062500000011</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="15.75">
+    <row r="576" spans="1:14" ht="15.75">
       <c r="A576" s="1">
         <v>40095</v>
       </c>
+      <c r="B576" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E576" s="8">
         <v>0</v>
       </c>
@@ -9107,11 +10884,15 @@
       <c r="G576" s="3">
         <v>29.971562500000015</v>
       </c>
+      <c r="N576" s="14"/>
     </row>
     <row r="577" spans="1:11" ht="15.75">
       <c r="A577" s="1">
         <v>40096</v>
       </c>
+      <c r="B577" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E577" s="8">
         <v>0</v>
       </c>
@@ -9126,6 +10907,9 @@
       <c r="A578" s="1">
         <v>40097</v>
       </c>
+      <c r="B578" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E578" s="8">
         <v>0</v>
       </c>
@@ -9140,6 +10924,9 @@
       <c r="A579" s="1">
         <v>40098</v>
       </c>
+      <c r="B579" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E579" s="8">
         <v>0</v>
       </c>
@@ -9154,6 +10941,9 @@
       <c r="A580" s="1">
         <v>40099</v>
       </c>
+      <c r="B580" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E580" s="8">
         <v>0</v>
       </c>
@@ -9168,6 +10958,9 @@
       <c r="A581" s="1">
         <v>40100</v>
       </c>
+      <c r="B581" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E581" s="8">
         <v>0</v>
       </c>
@@ -9182,6 +10975,9 @@
       </c>
       <c r="I581" s="10">
         <v>1.6666666666666667</v>
+      </c>
+      <c r="J581" s="13">
+        <v>11.43</v>
       </c>
       <c r="K581" s="10">
         <v>2.6037540000000003</v>
@@ -9191,6 +10987,9 @@
       <c r="A582" s="1">
         <v>40101</v>
       </c>
+      <c r="B582" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E582" s="8">
         <v>0</v>
       </c>
@@ -9205,6 +11004,9 @@
       <c r="A583" s="1">
         <v>40102</v>
       </c>
+      <c r="B583" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E583" s="8">
         <v>0</v>
       </c>
@@ -9219,6 +11021,9 @@
       <c r="A584" s="1">
         <v>40103</v>
       </c>
+      <c r="B584" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E584" s="8">
         <v>0</v>
       </c>
@@ -9233,6 +11038,9 @@
       <c r="A585" s="1">
         <v>40104</v>
       </c>
+      <c r="B585" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E585" s="8">
         <v>0</v>
       </c>
@@ -9247,6 +11055,9 @@
       <c r="A586" s="1">
         <v>40105</v>
       </c>
+      <c r="B586" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E586" s="8">
         <v>0</v>
       </c>
@@ -9261,6 +11072,9 @@
       <c r="A587" s="1">
         <v>40106</v>
       </c>
+      <c r="B587" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E587" s="8">
         <v>0</v>
       </c>
@@ -9275,6 +11089,9 @@
       <c r="A588" s="1">
         <v>40107</v>
       </c>
+      <c r="B588" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E588" s="8">
         <v>0</v>
       </c>
@@ -9289,6 +11106,9 @@
       <c r="A589" s="1">
         <v>40108</v>
       </c>
+      <c r="B589" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E589" s="8">
         <v>0</v>
       </c>
@@ -9303,6 +11123,9 @@
       <c r="A590" s="1">
         <v>40109</v>
       </c>
+      <c r="B590" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E590" s="8">
         <v>0.254</v>
       </c>
@@ -9317,6 +11140,9 @@
       <c r="A591" s="1">
         <v>40110</v>
       </c>
+      <c r="B591" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E591" s="8">
         <v>0</v>
       </c>
@@ -9331,6 +11157,9 @@
       <c r="A592" s="1">
         <v>40111</v>
       </c>
+      <c r="B592" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E592" s="8">
         <v>0</v>
       </c>
@@ -9345,6 +11174,9 @@
       <c r="A593" s="1">
         <v>40112</v>
       </c>
+      <c r="B593" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E593" s="8">
         <v>0</v>
       </c>
@@ -9359,6 +11191,9 @@
       <c r="A594" s="1">
         <v>40113</v>
       </c>
+      <c r="B594" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E594" s="8">
         <v>0</v>
       </c>
@@ -9373,6 +11208,9 @@
       <c r="A595" s="1">
         <v>40114</v>
       </c>
+      <c r="B595" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E595" s="8">
         <v>0</v>
       </c>
@@ -9387,6 +11225,9 @@
       <c r="A596" s="1">
         <v>40115</v>
       </c>
+      <c r="B596" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E596" s="8">
         <v>0</v>
       </c>
@@ -9401,6 +11242,9 @@
       <c r="A597" s="1">
         <v>40116</v>
       </c>
+      <c r="B597" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E597" s="8">
         <v>0</v>
       </c>
@@ -9415,6 +11259,9 @@
       <c r="A598" s="1">
         <v>40117</v>
       </c>
+      <c r="B598" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E598" s="8">
         <v>0</v>
       </c>
@@ -9429,6 +11276,9 @@
       <c r="A599" s="1">
         <v>40118</v>
       </c>
+      <c r="B599" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E599" s="8">
         <v>0</v>
       </c>
@@ -9441,6 +11291,9 @@
       <c r="A600" s="1">
         <v>40119</v>
       </c>
+      <c r="B600" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E600" s="8">
         <v>0</v>
       </c>
@@ -9455,6 +11308,9 @@
       <c r="A601" s="1">
         <v>40120</v>
       </c>
+      <c r="B601" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E601" s="8">
         <v>0</v>
       </c>
@@ -9469,6 +11325,9 @@
       <c r="A602" s="1">
         <v>40121</v>
       </c>
+      <c r="B602" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E602" s="8">
         <v>0</v>
       </c>
@@ -9483,6 +11342,9 @@
       <c r="A603" s="1">
         <v>40122</v>
       </c>
+      <c r="B603" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E603" s="8">
         <v>0</v>
       </c>
@@ -9497,6 +11359,9 @@
       <c r="A604" s="1">
         <v>40123</v>
       </c>
+      <c r="B604" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E604" s="8">
         <v>0</v>
       </c>
@@ -9511,6 +11376,9 @@
       <c r="A605" s="1">
         <v>40124</v>
       </c>
+      <c r="B605" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E605" s="8">
         <v>0</v>
       </c>
@@ -9525,6 +11393,9 @@
       <c r="A606" s="1">
         <v>40125</v>
       </c>
+      <c r="B606" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E606" s="8">
         <v>0</v>
       </c>
@@ -9539,6 +11410,9 @@
       <c r="A607" s="1">
         <v>40126</v>
       </c>
+      <c r="B607" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E607" s="8">
         <v>0</v>
       </c>
@@ -9553,6 +11427,9 @@
       <c r="A608" s="1">
         <v>40127</v>
       </c>
+      <c r="B608" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E608" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -9563,10 +11440,13 @@
         <v>23.575312499999992</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="15.75">
+    <row r="609" spans="1:14" ht="15.75">
       <c r="A609" s="1">
         <v>40128</v>
       </c>
+      <c r="B609" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E609" s="8">
         <v>0.254</v>
       </c>
@@ -9576,11 +11456,15 @@
       <c r="G609" s="3">
         <v>23.621666666666666</v>
       </c>
-    </row>
-    <row r="610" spans="1:11" ht="15.75">
+      <c r="N609" s="14"/>
+    </row>
+    <row r="610" spans="1:14" ht="15.75">
       <c r="A610" s="1">
         <v>40129</v>
       </c>
+      <c r="B610" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E610" s="8">
         <v>0</v>
       </c>
@@ -9591,10 +11475,13 @@
         <v>23.23395833333333</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="15.75">
+    <row r="611" spans="1:14" ht="15.75">
       <c r="A611" s="1">
         <v>40130</v>
       </c>
+      <c r="B611" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E611" s="8">
         <v>0</v>
       </c>
@@ -9610,14 +11497,20 @@
       <c r="I611" s="10">
         <v>2.3333333333333335</v>
       </c>
+      <c r="J611" s="13">
+        <v>10.18</v>
+      </c>
       <c r="K611" s="10">
         <v>1.8589752000000002</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="15.75">
+    <row r="612" spans="1:14" ht="15.75">
       <c r="A612" s="1">
         <v>40131</v>
       </c>
+      <c r="B612" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E612" s="8">
         <v>0.254</v>
       </c>
@@ -9628,10 +11521,13 @@
         <v>22.503333333333341</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="15.75">
+    <row r="613" spans="1:14" ht="15.75">
       <c r="A613" s="1">
         <v>40132</v>
       </c>
+      <c r="B613" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E613" s="8">
         <v>0</v>
       </c>
@@ -9642,10 +11538,13 @@
         <v>22.630520833333335</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="15.75">
+    <row r="614" spans="1:14" ht="15.75">
       <c r="A614" s="1">
         <v>40133</v>
       </c>
+      <c r="B614" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E614" s="8">
         <v>0</v>
       </c>
@@ -9656,10 +11555,13 @@
         <v>22.573645833333348</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="15.75">
+    <row r="615" spans="1:14" ht="15.75">
       <c r="A615" s="1">
         <v>40134</v>
       </c>
+      <c r="B615" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E615" s="8">
         <v>0</v>
       </c>
@@ -9670,10 +11572,13 @@
         <v>22.713437500000001</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="15.75">
+    <row r="616" spans="1:14" ht="15.75">
       <c r="A616" s="1">
         <v>40135</v>
       </c>
+      <c r="B616" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E616" s="8">
         <v>0</v>
       </c>
@@ -9684,10 +11589,13 @@
         <v>23.191041666666667</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="15.75">
+    <row r="617" spans="1:14" ht="15.75">
       <c r="A617" s="1">
         <v>40136</v>
       </c>
+      <c r="B617" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E617" s="8">
         <v>0</v>
       </c>
@@ -9698,10 +11606,13 @@
         <v>22.967499999999998</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="15.75">
+    <row r="618" spans="1:14" ht="15.75">
       <c r="A618" s="1">
         <v>40137</v>
       </c>
+      <c r="B618" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E618" s="8">
         <v>0</v>
       </c>
@@ -9712,10 +11623,13 @@
         <v>22.98885416666667</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="15.75">
+    <row r="619" spans="1:14" ht="15.75">
       <c r="A619" s="1">
         <v>40138</v>
       </c>
+      <c r="B619" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E619" s="8">
         <v>0</v>
       </c>
@@ -9726,10 +11640,13 @@
         <v>23.226666666666677</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="15.75">
+    <row r="620" spans="1:14" ht="15.75">
       <c r="A620" s="1">
         <v>40139</v>
       </c>
+      <c r="B620" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E620" s="8">
         <v>0</v>
       </c>
@@ -9740,10 +11657,13 @@
         <v>23.097604166666681</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="15.75">
+    <row r="621" spans="1:14" ht="15.75">
       <c r="A621" s="1">
         <v>40140</v>
       </c>
+      <c r="B621" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E621" s="8">
         <v>2.54</v>
       </c>
@@ -9754,10 +11674,13 @@
         <v>23.30041666666666</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="15.75">
+    <row r="622" spans="1:14" ht="15.75">
       <c r="A622" s="1">
         <v>40141</v>
       </c>
+      <c r="B622" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E622" s="8">
         <v>0</v>
       </c>
@@ -9768,10 +11691,13 @@
         <v>23.492395833333315</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="15.75">
+    <row r="623" spans="1:14" ht="15.75">
       <c r="A623" s="1">
         <v>40142</v>
       </c>
+      <c r="B623" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E623" s="8">
         <v>7.62</v>
       </c>
@@ -9782,10 +11708,13 @@
         <v>23.287604166666654</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="15.75">
+    <row r="624" spans="1:14" ht="15.75">
       <c r="A624" s="1">
         <v>40143</v>
       </c>
+      <c r="B624" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E624" s="8">
         <v>14.99</v>
       </c>
@@ -9796,10 +11725,13 @@
         <v>22.866666666666688</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="15.75">
+    <row r="625" spans="1:14" ht="15.75">
       <c r="A625" s="1">
         <v>40144</v>
       </c>
+      <c r="B625" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E625" s="8">
         <v>0.254</v>
       </c>
@@ -9810,10 +11742,13 @@
         <v>22.014583333333334</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="15.75">
+    <row r="626" spans="1:14" ht="15.75">
       <c r="A626" s="1">
         <v>40145</v>
       </c>
+      <c r="B626" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E626" s="8">
         <v>0</v>
       </c>
@@ -9824,10 +11759,13 @@
         <v>21.321875000000013</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="15.75">
+    <row r="627" spans="1:14" ht="15.75">
       <c r="A627" s="1">
         <v>40146</v>
       </c>
+      <c r="B627" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E627" s="8">
         <v>0</v>
       </c>
@@ -9838,10 +11776,13 @@
         <v>21.363125000000011</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="15.75">
+    <row r="628" spans="1:14" ht="15.75">
       <c r="A628" s="1">
         <v>40147</v>
       </c>
+      <c r="B628" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E628" s="8">
         <v>0</v>
       </c>
@@ -9852,10 +11793,13 @@
         <v>21.203333333333344</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="15.75">
+    <row r="629" spans="1:14" ht="15.75">
       <c r="A629" s="1">
         <v>40148</v>
       </c>
+      <c r="B629" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E629" s="8">
         <v>0</v>
       </c>
@@ -9866,9 +11810,12 @@
         <v>21.537708333333331</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="15.75">
+    <row r="630" spans="1:14" ht="15.75">
       <c r="A630" s="1">
         <v>40149</v>
+      </c>
+      <c r="B630" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E630" s="8">
         <v>0</v>
@@ -9878,10 +11825,13 @@
         <v>21.501041666666669</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="15.75">
+    <row r="631" spans="1:14" ht="15.75">
       <c r="A631" s="1">
         <v>40150</v>
       </c>
+      <c r="B631" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E631" s="8">
         <v>2.286</v>
       </c>
@@ -9892,10 +11842,13 @@
         <v>21.8396875</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="15.75">
+    <row r="632" spans="1:14" ht="15.75">
       <c r="A632" s="1">
         <v>40151</v>
       </c>
+      <c r="B632" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E632" s="8">
         <v>0.254</v>
       </c>
@@ -9906,10 +11859,13 @@
         <v>21.41479166666667</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="15.75">
+    <row r="633" spans="1:14" ht="15.75">
       <c r="A633" s="1">
         <v>40152</v>
       </c>
+      <c r="B633" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E633" s="8">
         <v>34.799999999999997</v>
       </c>
@@ -9920,10 +11876,13 @@
         <v>20.822604166666668</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="15.75">
+    <row r="634" spans="1:14" ht="15.75">
       <c r="A634" s="1">
         <v>40153</v>
       </c>
+      <c r="B634" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E634" s="8">
         <v>8.3800000000000008</v>
       </c>
@@ -9934,10 +11893,13 @@
         <v>20.31427083333331</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="15.75">
+    <row r="635" spans="1:14" ht="15.75">
       <c r="A635" s="1">
         <v>40154</v>
       </c>
+      <c r="B635" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E635" s="8">
         <v>0</v>
       </c>
@@ -9948,9 +11910,12 @@
         <v>20.656562500000003</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="15.75">
+    <row r="636" spans="1:14" ht="15.75">
       <c r="A636" s="1">
         <v>40155</v>
+      </c>
+      <c r="B636" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E636" s="8">
         <v>0</v>
@@ -9959,11 +11924,15 @@
       <c r="G636" s="3">
         <v>21.148645833333337</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" ht="15.75">
+      <c r="N636" s="14"/>
+    </row>
+    <row r="637" spans="1:14" ht="15.75">
       <c r="A637" s="1">
         <v>40156</v>
       </c>
+      <c r="B637" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E637" s="8">
         <v>0</v>
       </c>
@@ -9974,10 +11943,13 @@
         <v>21.800312500000008</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="15.75">
+    <row r="638" spans="1:14" ht="15.75">
       <c r="A638" s="1">
         <v>40157</v>
       </c>
+      <c r="B638" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E638" s="8">
         <v>0</v>
       </c>
@@ -9988,10 +11960,13 @@
         <v>22.141041666666666</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="15.75">
+    <row r="639" spans="1:14" ht="15.75">
       <c r="A639" s="1">
         <v>40158</v>
       </c>
+      <c r="B639" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E639" s="8">
         <v>3.556</v>
       </c>
@@ -10002,9 +11977,12 @@
         <v>21.196250000000003</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="15.75">
+    <row r="640" spans="1:14" ht="15.75">
       <c r="A640" s="1">
         <v>40159</v>
+      </c>
+      <c r="B640" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E640" s="8">
         <v>0.254</v>
@@ -10020,6 +11998,9 @@
       <c r="A641" s="1">
         <v>40160</v>
       </c>
+      <c r="B641" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E641" s="8">
         <v>0</v>
       </c>
@@ -10034,6 +12015,9 @@
       <c r="A642" s="1">
         <v>40161</v>
       </c>
+      <c r="B642" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E642" s="8">
         <v>0</v>
       </c>
@@ -10047,6 +12031,9 @@
       <c r="I642" s="10">
         <v>2.3333333333333335</v>
       </c>
+      <c r="J642" s="13">
+        <v>9.34</v>
+      </c>
       <c r="K642" s="10">
         <v>0</v>
       </c>
@@ -10055,6 +12042,9 @@
       <c r="A643" s="1">
         <v>40162</v>
       </c>
+      <c r="B643" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E643" s="8">
         <v>0</v>
       </c>
@@ -10069,6 +12059,9 @@
       <c r="A644" s="1">
         <v>40163</v>
       </c>
+      <c r="B644" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E644" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -10083,6 +12076,9 @@
       <c r="A645" s="1">
         <v>40164</v>
       </c>
+      <c r="B645" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E645" s="8">
         <v>0.254</v>
       </c>
@@ -10097,6 +12093,9 @@
       <c r="A646" s="1">
         <v>40165</v>
       </c>
+      <c r="B646" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E646" s="8">
         <v>1.524</v>
       </c>
@@ -10111,6 +12110,9 @@
       <c r="A647" s="1">
         <v>40166</v>
       </c>
+      <c r="B647" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E647" s="8">
         <v>12.45</v>
       </c>
@@ -10125,6 +12127,9 @@
       <c r="A648" s="1">
         <v>40167</v>
       </c>
+      <c r="B648" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E648" s="8">
         <v>0</v>
       </c>
@@ -10139,6 +12144,9 @@
       <c r="A649" s="1">
         <v>40168</v>
       </c>
+      <c r="B649" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E649" s="8">
         <v>0</v>
       </c>
@@ -10153,6 +12161,9 @@
       <c r="A650" s="1">
         <v>40169</v>
       </c>
+      <c r="B650" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E650" s="8">
         <v>0</v>
       </c>
@@ -10167,6 +12178,9 @@
       <c r="A651" s="1">
         <v>40170</v>
       </c>
+      <c r="B651" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E651" s="8">
         <v>0</v>
       </c>
@@ -10181,6 +12195,9 @@
       <c r="A652" s="1">
         <v>40171</v>
       </c>
+      <c r="B652" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E652" s="8">
         <v>0</v>
       </c>
@@ -10195,6 +12212,9 @@
       <c r="A653" s="1">
         <v>40172</v>
       </c>
+      <c r="B653" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E653" s="8">
         <v>0</v>
       </c>
@@ -10209,6 +12229,9 @@
       <c r="A654" s="1">
         <v>40173</v>
       </c>
+      <c r="B654" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E654" s="8">
         <v>2.032</v>
       </c>
@@ -10223,6 +12246,9 @@
       <c r="A655" s="1">
         <v>40174</v>
       </c>
+      <c r="B655" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E655" s="8">
         <v>0</v>
       </c>
@@ -10237,6 +12263,9 @@
       <c r="A656" s="1">
         <v>40175</v>
       </c>
+      <c r="B656" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E656" s="8">
         <v>0</v>
       </c>
@@ -10247,10 +12276,13 @@
         <v>18.871979166666669</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="15.75">
+    <row r="657" spans="1:14" ht="15.75">
       <c r="A657" s="1">
         <v>40176</v>
       </c>
+      <c r="B657" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E657" s="8">
         <v>0</v>
       </c>
@@ -10261,9 +12293,12 @@
         <v>18.483854166666649</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="15.75">
+    <row r="658" spans="1:14" ht="15.75">
       <c r="A658" s="1">
         <v>40177</v>
+      </c>
+      <c r="B658" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E658" s="8">
         <v>0</v>
@@ -10273,10 +12308,13 @@
         <v>18.403645833333336</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="15.75">
+    <row r="659" spans="1:14" ht="15.75">
       <c r="A659" s="1">
         <v>40178</v>
       </c>
+      <c r="B659" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E659" s="8">
         <v>0</v>
       </c>
@@ -10287,10 +12325,13 @@
         <v>18.571979166666669</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="15.75">
+    <row r="660" spans="1:14" ht="15.75">
       <c r="A660" s="1">
         <v>40179</v>
       </c>
+      <c r="B660" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E660" s="8">
         <v>0</v>
       </c>
@@ -10301,10 +12342,13 @@
         <v>17.854166666666671</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="15.75">
+    <row r="661" spans="1:14" ht="15.75">
       <c r="A661" s="1">
         <v>40180</v>
       </c>
+      <c r="B661" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E661" s="8">
         <v>16.760000000000002</v>
       </c>
@@ -10315,10 +12359,13 @@
         <v>17.346458333333324</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="15.75">
+    <row r="662" spans="1:14" ht="15.75">
       <c r="A662" s="1">
         <v>40181</v>
       </c>
+      <c r="B662" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E662" s="8">
         <v>0</v>
       </c>
@@ -10329,10 +12376,13 @@
         <v>16.859374999999993</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="15.75">
+    <row r="663" spans="1:14" ht="15.75">
       <c r="A663" s="1">
         <v>40182</v>
       </c>
+      <c r="B663" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E663" s="8">
         <v>0</v>
       </c>
@@ -10343,10 +12393,13 @@
         <v>16.799374999999994</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="15.75">
+    <row r="664" spans="1:14" ht="15.75">
       <c r="A664" s="1">
         <v>40183</v>
       </c>
+      <c r="B664" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E664" s="8">
         <v>0</v>
       </c>
@@ -10357,10 +12410,13 @@
         <v>16.456458333333327</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="15.75">
+    <row r="665" spans="1:14" ht="15.75">
       <c r="A665" s="1">
         <v>40184</v>
       </c>
+      <c r="B665" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E665" s="8">
         <v>0</v>
       </c>
@@ -10371,10 +12427,13 @@
         <v>16.000312499999982</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="15.75">
+    <row r="666" spans="1:14" ht="15.75">
       <c r="A666" s="1">
         <v>40185</v>
       </c>
+      <c r="B666" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E666" s="8">
         <v>0</v>
       </c>
@@ -10385,10 +12444,13 @@
         <v>15.893020833333333</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="15.75">
+    <row r="667" spans="1:14" ht="15.75">
       <c r="A667" s="1">
         <v>40186</v>
       </c>
+      <c r="B667" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E667" s="8">
         <v>0</v>
       </c>
@@ -10399,10 +12461,13 @@
         <v>15.649479166666666</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="15.75">
+    <row r="668" spans="1:14" ht="15.75">
       <c r="A668" s="1">
         <v>40187</v>
       </c>
+      <c r="B668" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E668" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -10413,10 +12478,13 @@
         <v>15.260312500000003</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="15.75">
+    <row r="669" spans="1:14" ht="15.75">
       <c r="A669" s="1">
         <v>40188</v>
       </c>
+      <c r="B669" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E669" s="8">
         <v>6.6040000000000001</v>
       </c>
@@ -10427,10 +12495,13 @@
         <v>14.590729166666685</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="15.75">
+    <row r="670" spans="1:14" ht="15.75">
       <c r="A670" s="1">
         <v>40189</v>
       </c>
+      <c r="B670" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E670" s="8">
         <v>0</v>
       </c>
@@ -10441,10 +12512,13 @@
         <v>14.201145833333337</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="15.75">
+    <row r="671" spans="1:14" ht="15.75">
       <c r="A671" s="1">
         <v>40190</v>
       </c>
+      <c r="B671" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E671" s="8">
         <v>0</v>
       </c>
@@ -10455,10 +12529,13 @@
         <v>13.991562500000013</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="15.75">
+    <row r="672" spans="1:14" ht="15.75">
       <c r="A672" s="1">
         <v>40191</v>
       </c>
+      <c r="B672" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E672" s="8">
         <v>0</v>
       </c>
@@ -10468,11 +12545,15 @@
       <c r="G672" s="3">
         <v>14.047083333333342</v>
       </c>
+      <c r="N672" s="14"/>
     </row>
     <row r="673" spans="1:11" ht="15.75">
       <c r="A673" s="1">
         <v>40192</v>
       </c>
+      <c r="B673" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E673" s="8">
         <v>0</v>
       </c>
@@ -10487,6 +12568,9 @@
       <c r="A674" s="1">
         <v>40193</v>
       </c>
+      <c r="B674" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E674" s="8">
         <v>0</v>
       </c>
@@ -10501,6 +12585,9 @@
       </c>
       <c r="I674" s="10">
         <v>1</v>
+      </c>
+      <c r="J674" s="13">
+        <v>8.4890000000000008</v>
       </c>
       <c r="K674" s="10">
         <v>2.9442156000000002</v>
@@ -10510,6 +12597,9 @@
       <c r="A675" s="1">
         <v>40194</v>
       </c>
+      <c r="B675" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E675" s="8">
         <v>0</v>
       </c>
@@ -10524,6 +12614,9 @@
       <c r="A676" s="1">
         <v>40195</v>
       </c>
+      <c r="B676" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E676" s="8">
         <v>1.016</v>
       </c>
@@ -10536,6 +12629,9 @@
       <c r="A677" s="1">
         <v>40196</v>
       </c>
+      <c r="B677" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E677" s="8">
         <v>0</v>
       </c>
@@ -10550,6 +12646,9 @@
       <c r="A678" s="1">
         <v>40197</v>
       </c>
+      <c r="B678" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E678" s="8">
         <v>0</v>
       </c>
@@ -10562,6 +12661,9 @@
       <c r="A679" s="1">
         <v>40198</v>
       </c>
+      <c r="B679" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E679" s="8">
         <v>0</v>
       </c>
@@ -10576,6 +12678,9 @@
       <c r="A680" s="1">
         <v>40199</v>
       </c>
+      <c r="B680" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E680" s="8">
         <v>0</v>
       </c>
@@ -10590,6 +12695,9 @@
       <c r="A681" s="1">
         <v>40200</v>
       </c>
+      <c r="B681" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E681" s="8">
         <v>0</v>
       </c>
@@ -10604,6 +12712,9 @@
       <c r="A682" s="1">
         <v>40201</v>
       </c>
+      <c r="B682" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E682" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -10618,6 +12729,9 @@
       <c r="A683" s="1">
         <v>40202</v>
       </c>
+      <c r="B683" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E683" s="8">
         <v>0.254</v>
       </c>
@@ -10632,6 +12746,9 @@
       <c r="A684" s="1">
         <v>40203</v>
       </c>
+      <c r="B684" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E684" s="8">
         <v>1.524</v>
       </c>
@@ -10646,6 +12763,9 @@
       <c r="A685" s="1">
         <v>40204</v>
       </c>
+      <c r="B685" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E685" s="8">
         <v>10.16</v>
       </c>
@@ -10660,6 +12780,9 @@
       <c r="A686" s="1">
         <v>40205</v>
       </c>
+      <c r="B686" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E686" s="8">
         <v>0</v>
       </c>
@@ -10674,6 +12797,9 @@
       <c r="A687" s="1">
         <v>40206</v>
       </c>
+      <c r="B687" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E687" s="8">
         <v>0</v>
       </c>
@@ -10688,6 +12814,9 @@
       <c r="A688" s="1">
         <v>40207</v>
       </c>
+      <c r="B688" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E688" s="8">
         <v>0</v>
       </c>
@@ -10698,10 +12827,13 @@
         <v>18.765937499999996</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="15.75">
+    <row r="689" spans="1:14" ht="15.75">
       <c r="A689" s="1">
         <v>40208</v>
       </c>
+      <c r="B689" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E689" s="8">
         <v>0</v>
       </c>
@@ -10712,10 +12844,13 @@
         <v>18.974062500000006</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="15.75">
+    <row r="690" spans="1:14" ht="15.75">
       <c r="A690" s="1">
         <v>40209</v>
       </c>
+      <c r="B690" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E690" s="8">
         <v>0</v>
       </c>
@@ -10726,10 +12861,13 @@
         <v>18.745937499999993</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="15.75">
+    <row r="691" spans="1:14" ht="15.75">
       <c r="A691" s="1">
         <v>40210</v>
       </c>
+      <c r="B691" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E691" s="8">
         <v>1.778</v>
       </c>
@@ -10740,10 +12878,13 @@
         <v>18.159583333333366</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="15.75">
+    <row r="692" spans="1:14" ht="15.75">
       <c r="A692" s="1">
         <v>40211</v>
       </c>
+      <c r="B692" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E692" s="8">
         <v>3.81</v>
       </c>
@@ -10754,10 +12895,13 @@
         <v>18.357604166666672</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="15.75">
+    <row r="693" spans="1:14" ht="15.75">
       <c r="A693" s="1">
         <v>40212</v>
       </c>
+      <c r="B693" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E693" s="8">
         <v>2.032</v>
       </c>
@@ -10768,10 +12912,13 @@
         <v>18.126145833333332</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="15.75">
+    <row r="694" spans="1:14" ht="15.75">
       <c r="A694" s="1">
         <v>40213</v>
       </c>
+      <c r="B694" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E694" s="8">
         <v>0</v>
       </c>
@@ -10782,10 +12929,13 @@
         <v>18.093854166666656</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="15.75">
+    <row r="695" spans="1:14" ht="15.75">
       <c r="A695" s="1">
         <v>40214</v>
       </c>
+      <c r="B695" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E695" s="8">
         <v>0</v>
       </c>
@@ -10796,10 +12946,13 @@
         <v>18.39708333333332</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="15.75">
+    <row r="696" spans="1:14" ht="15.75">
       <c r="A696" s="1">
         <v>40215</v>
       </c>
+      <c r="B696" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E696" s="8">
         <v>11.94</v>
       </c>
@@ -10810,10 +12963,13 @@
         <v>18.436874999999983</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="15.75">
+    <row r="697" spans="1:14" ht="15.75">
       <c r="A697" s="1">
         <v>40216</v>
       </c>
+      <c r="B697" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E697" s="8">
         <v>0.254</v>
       </c>
@@ -10824,10 +12980,13 @@
         <v>18.025729166666654</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="15.75">
+    <row r="698" spans="1:14" ht="15.75">
       <c r="A698" s="1">
         <v>40217</v>
       </c>
+      <c r="B698" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E698" s="8">
         <v>0</v>
       </c>
@@ -10838,10 +12997,13 @@
         <v>17.855729166666656</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="15.75">
+    <row r="699" spans="1:14" ht="15.75">
       <c r="A699" s="1">
         <v>40218</v>
       </c>
+      <c r="B699" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E699" s="8">
         <v>0</v>
       </c>
@@ -10850,10 +13012,13 @@
       </c>
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="1:7" ht="15.75">
+    <row r="700" spans="1:14" ht="15.75">
       <c r="A700" s="1">
         <v>40219</v>
       </c>
+      <c r="B700" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E700" s="8">
         <v>20.32</v>
       </c>
@@ -10864,10 +13029,13 @@
         <v>17.543020833333333</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="15.75">
+    <row r="701" spans="1:14" ht="15.75">
       <c r="A701" s="1">
         <v>40220</v>
       </c>
+      <c r="B701" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E701" s="8">
         <v>0</v>
       </c>
@@ -10877,11 +13045,15 @@
       <c r="G701" s="3">
         <v>16.965729166666659</v>
       </c>
-    </row>
-    <row r="702" spans="1:7" ht="15.75">
+      <c r="N701" s="14"/>
+    </row>
+    <row r="702" spans="1:14" ht="15.75">
       <c r="A702" s="1">
         <v>40221</v>
       </c>
+      <c r="B702" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E702" s="8">
         <v>0</v>
       </c>
@@ -10892,10 +13064,13 @@
         <v>16.593229166666642</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="15.75">
+    <row r="703" spans="1:14" ht="15.75">
       <c r="A703" s="1">
         <v>40222</v>
       </c>
+      <c r="B703" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E703" s="8">
         <v>23.37</v>
       </c>
@@ -10906,9 +13081,12 @@
         <v>16.082499999999982</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="15.75">
+    <row r="704" spans="1:14" ht="15.75">
       <c r="A704" s="1">
         <v>40223</v>
+      </c>
+      <c r="B704" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E704" s="8">
         <v>0</v>
@@ -10924,6 +13102,9 @@
       <c r="A705" s="1">
         <v>40224</v>
       </c>
+      <c r="B705" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E705" s="8">
         <v>0</v>
       </c>
@@ -10938,6 +13119,9 @@
       <c r="A706" s="1">
         <v>40225</v>
       </c>
+      <c r="B706" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E706" s="8">
         <v>0</v>
       </c>
@@ -10952,6 +13136,9 @@
       </c>
       <c r="I706" s="10">
         <v>2.3333333333333335</v>
+      </c>
+      <c r="J706" s="13">
+        <v>8.4860000000000007</v>
       </c>
       <c r="K706" s="10">
         <v>2.1701760000000001</v>
@@ -10961,6 +13148,9 @@
       <c r="A707" s="1">
         <v>40226</v>
       </c>
+      <c r="B707" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E707" s="8">
         <v>0</v>
       </c>
@@ -10975,6 +13165,9 @@
       <c r="A708" s="1">
         <v>40227</v>
       </c>
+      <c r="B708" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E708" s="8">
         <v>0</v>
       </c>
@@ -10989,6 +13182,9 @@
       <c r="A709" s="1">
         <v>40228</v>
       </c>
+      <c r="B709" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E709" s="8">
         <v>0</v>
       </c>
@@ -11003,6 +13199,9 @@
       <c r="A710" s="1">
         <v>40229</v>
       </c>
+      <c r="B710" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E710" s="8">
         <v>0</v>
       </c>
@@ -11017,6 +13216,9 @@
       <c r="A711" s="1">
         <v>40230</v>
       </c>
+      <c r="B711" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E711" s="8">
         <v>0</v>
       </c>
@@ -11031,6 +13233,9 @@
       <c r="A712" s="1">
         <v>40231</v>
       </c>
+      <c r="B712" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E712" s="8">
         <v>0</v>
       </c>
@@ -11045,6 +13250,9 @@
       <c r="A713" s="1">
         <v>40232</v>
       </c>
+      <c r="B713" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E713" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -11059,6 +13267,9 @@
       <c r="A714" s="1">
         <v>40233</v>
       </c>
+      <c r="B714" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E714" s="8">
         <v>0.254</v>
       </c>
@@ -11073,6 +13284,9 @@
       <c r="A715" s="1">
         <v>40234</v>
       </c>
+      <c r="B715" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E715" s="8">
         <v>7.8739999999999997</v>
       </c>
@@ -11087,6 +13301,9 @@
       <c r="A716" s="1">
         <v>40235</v>
       </c>
+      <c r="B716" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E716" s="8">
         <v>0</v>
       </c>
@@ -11101,6 +13318,9 @@
       <c r="A717" s="1">
         <v>40236</v>
       </c>
+      <c r="B717" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E717" s="8">
         <v>0</v>
       </c>
@@ -11115,6 +13335,9 @@
       <c r="A718" s="1">
         <v>40237</v>
       </c>
+      <c r="B718" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E718" s="8">
         <v>1.778</v>
       </c>
@@ -11129,6 +13352,9 @@
       <c r="A719" s="1">
         <v>40238</v>
       </c>
+      <c r="B719" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E719" s="8">
         <v>0.254</v>
       </c>
@@ -11143,6 +13369,9 @@
       <c r="A720" s="1">
         <v>40239</v>
       </c>
+      <c r="B720" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E720" s="8">
         <v>0.254</v>
       </c>
@@ -11153,10 +13382,13 @@
         <v>16.204166666666655</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="15.75">
+    <row r="721" spans="1:13" ht="15.75">
       <c r="A721" s="1">
         <v>40240</v>
       </c>
+      <c r="B721" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E721" s="8">
         <v>5.3339999999999996</v>
       </c>
@@ -11167,10 +13399,13 @@
         <v>15.717395833333336</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="15.75">
+    <row r="722" spans="1:13" ht="15.75">
       <c r="A722" s="1">
         <v>40241</v>
       </c>
+      <c r="B722" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E722" s="8">
         <v>0</v>
       </c>
@@ -11181,10 +13416,13 @@
         <v>15.412708333333335</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="15.75">
+    <row r="723" spans="1:13" ht="15.75">
       <c r="A723" s="1">
         <v>40242</v>
       </c>
+      <c r="B723" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E723" s="8">
         <v>0</v>
       </c>
@@ -11195,10 +13433,13 @@
         <v>15.483749999999992</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="15.75">
+    <row r="724" spans="1:13" ht="15.75">
       <c r="A724" s="1">
         <v>40243</v>
       </c>
+      <c r="B724" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E724" s="8">
         <v>0</v>
       </c>
@@ -11209,10 +13450,13 @@
         <v>15.666562499999996</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="15.75">
+    <row r="725" spans="1:13" ht="15.75">
       <c r="A725" s="1">
         <v>40244</v>
       </c>
+      <c r="B725" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E725" s="8">
         <v>0</v>
       </c>
@@ -11223,10 +13467,13 @@
         <v>16.123749999999998</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="15.75">
+    <row r="726" spans="1:13" ht="15.75">
       <c r="A726" s="1">
         <v>40245</v>
       </c>
+      <c r="B726" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E726" s="8">
         <v>0</v>
       </c>
@@ -11237,10 +13484,13 @@
         <v>16.936249999999998</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="15.75">
+    <row r="727" spans="1:13" ht="15.75">
       <c r="A727" s="1">
         <v>40246</v>
       </c>
+      <c r="B727" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E727" s="8">
         <v>0</v>
       </c>
@@ -11251,10 +13501,13 @@
         <v>17.071354166666662</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="15.75">
+    <row r="728" spans="1:13" ht="15.75">
       <c r="A728" s="1">
         <v>40247</v>
       </c>
+      <c r="B728" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E728" s="8">
         <v>0</v>
       </c>
@@ -11265,10 +13518,13 @@
         <v>17.503645833333334</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="15.75">
+    <row r="729" spans="1:13" ht="15.75">
       <c r="A729" s="1">
         <v>40248</v>
       </c>
+      <c r="B729" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E729" s="8">
         <v>0</v>
       </c>
@@ -11279,10 +13535,13 @@
         <v>18.207708333333315</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="15.75">
+    <row r="730" spans="1:13" ht="15.75">
       <c r="A730" s="1">
         <v>40249</v>
       </c>
+      <c r="B730" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E730" s="8">
         <v>58.17</v>
       </c>
@@ -11293,10 +13552,13 @@
         <v>18.483020833333313</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="15.75">
+    <row r="731" spans="1:13" ht="15.75">
       <c r="A731" s="1">
         <v>40250</v>
       </c>
+      <c r="B731" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E731" s="8">
         <v>41.66</v>
       </c>
@@ -11307,10 +13569,13 @@
         <v>18.35864583333333</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="15.75">
+    <row r="732" spans="1:13" ht="15.75">
       <c r="A732" s="1">
         <v>40251</v>
       </c>
+      <c r="B732" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E732" s="8">
         <v>0</v>
       </c>
@@ -11321,10 +13586,13 @@
         <v>18.249062499999994</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="15.75">
+    <row r="733" spans="1:13" ht="15.75">
       <c r="A733" s="1">
         <v>40252</v>
       </c>
+      <c r="B733" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E733" s="8">
         <v>0</v>
       </c>
@@ -11340,14 +13608,21 @@
       <c r="I733" s="10">
         <v>2.6666666666666665</v>
       </c>
+      <c r="J733" s="13">
+        <v>8.0839999999999996</v>
+      </c>
       <c r="K733" s="10">
         <v>1.9327368000000003</v>
       </c>
-    </row>
-    <row r="734" spans="1:11" ht="15.75">
+      <c r="M733" s="14"/>
+    </row>
+    <row r="734" spans="1:13" ht="15.75">
       <c r="A734" s="1">
         <v>40253</v>
       </c>
+      <c r="B734" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E734" s="8">
         <v>0</v>
       </c>
@@ -11358,10 +13633,13 @@
         <v>18.502187499999994</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="15.75">
+    <row r="735" spans="1:13" ht="15.75">
       <c r="A735" s="1">
         <v>40254</v>
       </c>
+      <c r="B735" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E735" s="8">
         <v>0</v>
       </c>
@@ -11372,9 +13650,12 @@
         <v>18.502500000000005</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="15.75">
+    <row r="736" spans="1:13" ht="15.75">
       <c r="A736" s="1">
         <v>40255</v>
+      </c>
+      <c r="B736" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E736" s="8">
         <v>0</v>
@@ -11390,6 +13671,9 @@
       <c r="A737" s="1">
         <v>40256</v>
       </c>
+      <c r="B737" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E737" s="8">
         <v>0</v>
       </c>
@@ -11404,6 +13688,9 @@
       <c r="A738" s="1">
         <v>40257</v>
       </c>
+      <c r="B738" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E738" s="8">
         <v>0</v>
       </c>
@@ -11418,6 +13705,9 @@
       <c r="A739" s="1">
         <v>40258</v>
       </c>
+      <c r="B739" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E739" s="8">
         <v>0</v>
       </c>
@@ -11432,6 +13722,9 @@
       <c r="A740" s="1">
         <v>40259</v>
       </c>
+      <c r="B740" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E740" s="8">
         <v>29.21</v>
       </c>
@@ -11446,6 +13739,9 @@
       <c r="A741" s="1">
         <v>40260</v>
       </c>
+      <c r="B741" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E741" s="8">
         <v>0</v>
       </c>
@@ -11460,6 +13756,9 @@
       <c r="A742" s="1">
         <v>40261</v>
       </c>
+      <c r="B742" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E742" s="8">
         <v>0</v>
       </c>
@@ -11474,6 +13773,9 @@
       <c r="A743" s="1">
         <v>40262</v>
       </c>
+      <c r="B743" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E743" s="8">
         <v>0</v>
       </c>
@@ -11488,6 +13790,9 @@
       <c r="A744" s="1">
         <v>40263</v>
       </c>
+      <c r="B744" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E744" s="8">
         <v>3.302</v>
       </c>
@@ -11502,6 +13807,9 @@
       <c r="A745" s="1">
         <v>40264</v>
       </c>
+      <c r="B745" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E745" s="8">
         <v>0</v>
       </c>
@@ -11516,6 +13824,9 @@
       <c r="A746" s="1">
         <v>40265</v>
       </c>
+      <c r="B746" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E746" s="8">
         <v>0</v>
       </c>
@@ -11530,6 +13841,9 @@
       <c r="A747" s="1">
         <v>40266</v>
       </c>
+      <c r="B747" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E747" s="8">
         <v>94.2</v>
       </c>
@@ -11544,6 +13858,9 @@
       <c r="A748" s="1">
         <v>40267</v>
       </c>
+      <c r="B748" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E748" s="8">
         <v>1.27</v>
       </c>
@@ -11558,6 +13875,9 @@
       <c r="A749" s="1">
         <v>40268</v>
       </c>
+      <c r="B749" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E749" s="8">
         <v>0</v>
       </c>
@@ -11572,6 +13892,9 @@
       <c r="A750" s="1">
         <v>40269</v>
       </c>
+      <c r="B750" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E750" s="8">
         <v>0</v>
       </c>
@@ -11586,6 +13909,9 @@
       <c r="A751" s="1">
         <v>40270</v>
       </c>
+      <c r="B751" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E751" s="8">
         <v>0</v>
       </c>
@@ -11600,6 +13926,9 @@
       <c r="A752" s="1">
         <v>40271</v>
       </c>
+      <c r="B752" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E752" s="8">
         <v>0</v>
       </c>
@@ -11610,10 +13939,13 @@
         <v>22.387395833333333</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="15.75">
+    <row r="753" spans="1:13" ht="15.75">
       <c r="A753" s="1">
         <v>40272</v>
       </c>
+      <c r="B753" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E753" s="8">
         <v>0</v>
       </c>
@@ -11624,10 +13956,13 @@
         <v>22.849895833333331</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="15.75">
+    <row r="754" spans="1:13" ht="15.75">
       <c r="A754" s="1">
         <v>40273</v>
       </c>
+      <c r="B754" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E754" s="8">
         <v>0</v>
       </c>
@@ -11638,10 +13973,13 @@
         <v>23.111666666666654</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="15.75">
+    <row r="755" spans="1:13" ht="15.75">
       <c r="A755" s="1">
         <v>40274</v>
       </c>
+      <c r="B755" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E755" s="8">
         <v>0</v>
       </c>
@@ -11652,10 +13990,13 @@
         <v>23.612708333333327</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="15.75">
+    <row r="756" spans="1:13" ht="15.75">
       <c r="A756" s="1">
         <v>40275</v>
       </c>
+      <c r="B756" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E756" s="8">
         <v>0</v>
       </c>
@@ -11666,10 +14007,13 @@
         <v>24.005833333333342</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="15.75">
+    <row r="757" spans="1:13" ht="15.75">
       <c r="A757" s="1">
         <v>40276</v>
       </c>
+      <c r="B757" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E757" s="8">
         <v>0</v>
       </c>
@@ -11680,10 +14024,13 @@
         <v>24.118749999999988</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="15.75">
+    <row r="758" spans="1:13" ht="15.75">
       <c r="A758" s="1">
         <v>40277</v>
       </c>
+      <c r="B758" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E758" s="8">
         <v>0</v>
       </c>
@@ -11694,10 +14041,13 @@
         <v>24.304270833333334</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="15.75">
+    <row r="759" spans="1:13" ht="15.75">
       <c r="A759" s="1">
         <v>40278</v>
       </c>
+      <c r="B759" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E759" s="8">
         <v>0</v>
       </c>
@@ -11708,10 +14058,13 @@
         <v>24.194479166666678</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="15.75">
+    <row r="760" spans="1:13" ht="15.75">
       <c r="A760" s="1">
         <v>40279</v>
       </c>
+      <c r="B760" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E760" s="8">
         <v>0</v>
       </c>
@@ -11722,10 +14075,13 @@
         <v>23.677395833333325</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="15.75">
+    <row r="761" spans="1:13" ht="15.75">
       <c r="A761" s="1">
         <v>40280</v>
       </c>
+      <c r="B761" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E761" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -11736,10 +14092,13 @@
         <v>23.277708333333319</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="15.75">
+    <row r="762" spans="1:13" ht="15.75">
       <c r="A762" s="1">
         <v>40281</v>
       </c>
+      <c r="B762" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E762" s="8">
         <v>0.254</v>
       </c>
@@ -11750,10 +14109,13 @@
         <v>23.153333333333325</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="15.75">
+    <row r="763" spans="1:13" ht="15.75">
       <c r="A763" s="1">
         <v>40282</v>
       </c>
+      <c r="B763" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E763" s="8">
         <v>0</v>
       </c>
@@ -11764,10 +14126,13 @@
         <v>23.141458333333329</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="15.75">
+    <row r="764" spans="1:13" ht="15.75">
       <c r="A764" s="1">
         <v>40283</v>
       </c>
+      <c r="B764" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E764" s="8">
         <v>0</v>
       </c>
@@ -11783,14 +14148,20 @@
       <c r="I764" s="10">
         <v>2.6666666666666665</v>
       </c>
+      <c r="J764" s="13">
+        <v>7.8810000000000002</v>
+      </c>
       <c r="K764" s="10">
         <v>1.9568160000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="15.75">
+    <row r="765" spans="1:13" ht="15.75">
       <c r="A765" s="1">
         <v>40284</v>
       </c>
+      <c r="B765" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E765" s="8">
         <v>0</v>
       </c>
@@ -11800,11 +14171,15 @@
       <c r="G765" s="3">
         <v>22.94468749999999</v>
       </c>
-    </row>
-    <row r="766" spans="1:11" ht="15.75">
+      <c r="M765" s="14"/>
+    </row>
+    <row r="766" spans="1:13" ht="15.75">
       <c r="A766" s="1">
         <v>40285</v>
       </c>
+      <c r="B766" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E766" s="8">
         <v>0</v>
       </c>
@@ -11815,10 +14190,13 @@
         <v>23.104270833333317</v>
       </c>
     </row>
-    <row r="767" spans="1:11" ht="15.75">
+    <row r="767" spans="1:13" ht="15.75">
       <c r="A767" s="1">
         <v>40286</v>
       </c>
+      <c r="B767" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E767" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -11829,9 +14207,12 @@
         <v>22.978333333333328</v>
       </c>
     </row>
-    <row r="768" spans="1:11" ht="15.75">
+    <row r="768" spans="1:13" ht="15.75">
       <c r="A768" s="1">
         <v>40287</v>
+      </c>
+      <c r="B768" s="15">
+        <v>2755357.1351573463</v>
       </c>
       <c r="E768" s="8">
         <v>9.91</v>
@@ -11847,6 +14228,9 @@
       <c r="A769" s="1">
         <v>40288</v>
       </c>
+      <c r="B769" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E769" s="8">
         <v>1.524</v>
       </c>
@@ -11861,6 +14245,9 @@
       <c r="A770" s="1">
         <v>40289</v>
       </c>
+      <c r="B770" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E770" s="8">
         <v>0.76200000000000001</v>
       </c>
@@ -11875,6 +14262,9 @@
       <c r="A771" s="1">
         <v>40290</v>
       </c>
+      <c r="B771" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E771" s="8">
         <v>0.254</v>
       </c>
@@ -11889,6 +14279,9 @@
       <c r="A772" s="1">
         <v>40291</v>
       </c>
+      <c r="B772" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E772" s="8">
         <v>0</v>
       </c>
@@ -11903,6 +14296,9 @@
       <c r="A773" s="1">
         <v>40292</v>
       </c>
+      <c r="B773" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E773" s="8">
         <v>0</v>
       </c>
@@ -11917,6 +14313,9 @@
       <c r="A774" s="1">
         <v>40293</v>
       </c>
+      <c r="B774" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E774" s="8">
         <v>0</v>
       </c>
@@ -11931,6 +14330,9 @@
       <c r="A775" s="1">
         <v>40294</v>
       </c>
+      <c r="B775" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E775" s="8">
         <v>36.32</v>
       </c>
@@ -11945,6 +14347,9 @@
       <c r="A776" s="1">
         <v>40295</v>
       </c>
+      <c r="B776" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E776" s="8">
         <v>0.254</v>
       </c>
@@ -11959,6 +14364,9 @@
       <c r="A777" s="1">
         <v>40296</v>
       </c>
+      <c r="B777" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E777" s="8">
         <v>0</v>
       </c>
@@ -11973,6 +14381,9 @@
       <c r="A778" s="1">
         <v>40297</v>
       </c>
+      <c r="B778" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E778" s="8">
         <v>0</v>
       </c>
@@ -11987,6 +14398,9 @@
       <c r="A779" s="1">
         <v>40298</v>
       </c>
+      <c r="B779" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E779" s="8">
         <v>0.50800000000000001</v>
       </c>
@@ -12001,6 +14415,9 @@
       <c r="A780" s="1">
         <v>40299</v>
       </c>
+      <c r="B780" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E780" s="8">
         <v>0</v>
       </c>
@@ -12015,6 +14432,9 @@
       <c r="A781" s="1">
         <v>40300</v>
       </c>
+      <c r="B781" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E781" s="8">
         <v>0</v>
       </c>
@@ -12029,6 +14449,9 @@
       <c r="A782" s="1">
         <v>40301</v>
       </c>
+      <c r="B782" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E782" s="8">
         <v>0</v>
       </c>
@@ -12043,6 +14466,9 @@
       <c r="A783" s="1">
         <v>40302</v>
       </c>
+      <c r="B783" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E783" s="8">
         <v>0</v>
       </c>
@@ -12057,6 +14483,9 @@
       <c r="A784" s="1">
         <v>40303</v>
       </c>
+      <c r="B784" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E784" s="8">
         <v>0</v>
       </c>
@@ -12067,10 +14496,13 @@
         <v>28.398541666666663</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="15.75">
+    <row r="785" spans="1:13" ht="15.75">
       <c r="A785" s="1">
         <v>40304</v>
       </c>
+      <c r="B785" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E785" s="8">
         <v>0</v>
       </c>
@@ -12081,10 +14513,13 @@
         <v>28.915625000000002</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="15.75">
+    <row r="786" spans="1:13" ht="15.75">
       <c r="A786" s="1">
         <v>40305</v>
       </c>
+      <c r="B786" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E786" s="8">
         <v>0</v>
       </c>
@@ -12095,10 +14530,13 @@
         <v>29.525312499999995</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="15.75">
+    <row r="787" spans="1:13" ht="15.75">
       <c r="A787" s="1">
         <v>40306</v>
       </c>
+      <c r="B787" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E787" s="8">
         <v>0</v>
       </c>
@@ -12109,10 +14547,13 @@
         <v>29.369479166666665</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="15.75">
+    <row r="788" spans="1:13" ht="15.75">
       <c r="A788" s="1">
         <v>40307</v>
       </c>
+      <c r="B788" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E788" s="8">
         <v>0</v>
       </c>
@@ -12123,10 +14564,13 @@
         <v>29.033750000000001</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="15.75">
+    <row r="789" spans="1:13" ht="15.75">
       <c r="A789" s="1">
         <v>40308</v>
       </c>
+      <c r="B789" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E789" s="8">
         <v>0</v>
       </c>
@@ -12137,10 +14581,13 @@
         <v>28.531041666666656</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="15.75">
+    <row r="790" spans="1:13" ht="15.75">
       <c r="A790" s="1">
         <v>40309</v>
       </c>
+      <c r="B790" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E790" s="8">
         <v>0</v>
       </c>
@@ -12151,10 +14598,13 @@
         <v>28.011875000000007</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="15.75">
+    <row r="791" spans="1:13" ht="15.75">
       <c r="A791" s="1">
         <v>40310</v>
       </c>
+      <c r="B791" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E791" s="8">
         <v>0</v>
       </c>
@@ -12165,10 +14615,13 @@
         <v>27.730416666666645</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="15.75">
+    <row r="792" spans="1:13" ht="15.75">
       <c r="A792" s="1">
         <v>40311</v>
       </c>
+      <c r="B792" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E792" s="8">
         <v>0</v>
       </c>
@@ -12179,10 +14632,13 @@
         <v>27.597708333333326</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="15.75">
+    <row r="793" spans="1:13" ht="15.75">
       <c r="A793" s="1">
         <v>40312</v>
       </c>
+      <c r="B793" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E793" s="8">
         <v>0</v>
       </c>
@@ -12193,10 +14649,13 @@
         <v>27.601354166666653</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="15.75">
+    <row r="794" spans="1:13" ht="15.75">
       <c r="A794" s="1">
         <v>40313</v>
       </c>
+      <c r="B794" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E794" s="8">
         <v>0</v>
       </c>
@@ -12207,10 +14666,13 @@
         <v>27.771979166666657</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="15.75">
+    <row r="795" spans="1:13" ht="15.75">
       <c r="A795" s="1">
         <v>40314</v>
       </c>
+      <c r="B795" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E795" s="8">
         <v>0</v>
       </c>
@@ -12221,10 +14683,13 @@
         <v>27.964062500000001</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="15.75">
+    <row r="796" spans="1:13" ht="15.75">
       <c r="A796" s="1">
         <v>40315</v>
       </c>
+      <c r="B796" s="15">
+        <v>2755357.1351573463</v>
+      </c>
       <c r="E796" s="8">
         <v>5.8419999999999996</v>
       </c>
@@ -12240,9 +14705,15 @@
       <c r="I796" s="10">
         <v>2</v>
       </c>
+      <c r="J796" s="13">
+        <v>7.6369999999999996</v>
+      </c>
       <c r="K796" s="10">
         <v>1.8623280000000002</v>
       </c>
+    </row>
+    <row r="798" spans="1:13">
+      <c r="M798" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
